--- a/Documentaition.xlsx
+++ b/Documentaition.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12300" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28770" windowHeight="12300" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Тест-кейсы" sheetId="3" r:id="rId1"/>
@@ -18,9 +18,6 @@
     <sheet name="Техники тест-дизайна" sheetId="7" r:id="rId4"/>
     <sheet name="Отчет" sheetId="6" r:id="rId5"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId6"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1024,9 +1021,6 @@
     <t xml:space="preserve">Данный отчет по тестированию web-приложения "Собаседник" в период с 01.05.2023 по 23.06.2023 описывает весь объем проведенных работ в подотчетный период и использованных инструментов. Данный релиз не рекомендуем к выпуску до устранения критических багов, выявленных в результатах тестирования </t>
   </si>
   <si>
-    <t>На текущий момент web-приложение не рекомендуется в релиз. Необходимы правки основного функционала, проверки интеграции со сторониими сайтами, сверка с макетами дизайна web-приложения.</t>
-  </si>
-  <si>
     <t>Поле/Блок</t>
   </si>
   <si>
@@ -1319,13 +1313,16 @@
   </si>
   <si>
     <t>Клик на любом из вариантов чекбокса</t>
+  </si>
+  <si>
+    <t>На текущий момент web-приложение не рекомендуется в релиз. Необходимы правки основного функционала, проверки интеграции со сторонними сайтами, сверка с макетами дизайна web-приложения.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="27">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1389,14 +1386,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
@@ -1428,14 +1417,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Arial"/>
@@ -1448,13 +1429,6 @@
       <name val="Inherit"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
@@ -1462,12 +1436,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1520,8 +1488,52 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1582,6 +1594,12 @@
         <bgColor rgb="FFD9EAD3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="52">
     <border>
@@ -2212,9 +2230,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="250">
+  <cellXfs count="260">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2225,27 +2243,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2255,296 +2265,385 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2552,362 +2651,313 @@
     <xf numFmtId="0" fontId="11" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="30" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="17" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="28" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" xfId="2" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3024,6 +3074,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D832-413F-91DF-4C6CE49D8BF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -3191,6 +3246,11 @@
                 </a:outerShdw>
               </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-D832-413F-91DF-4C6CE49D8BF9}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:dLbl>
@@ -3639,7 +3699,7 @@
           </a:p>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1130" baseline="0"/>
+              <a:defRPr sz="1130"/>
             </a:pPr>
             <a:endParaRPr lang="ru-RU" sz="1130" baseline="0"/>
           </a:p>
@@ -4043,6 +4103,13 @@
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:txPr>
               <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
                 <a:spAutoFit/>
@@ -4085,9 +4152,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -4377,7 +4442,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -4498,7 +4562,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -6539,126 +6602,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Для информации в таблицу"/>
-      <sheetName val="Чек-листы"/>
-      <sheetName val="Шпаргалки"/>
-      <sheetName val="Полезные ссылки"/>
-      <sheetName val=" "/>
-      <sheetName val="Инструменты"/>
-      <sheetName val="Виды тестирования"/>
-      <sheetName val="Баг-репорт"/>
-      <sheetName val="GIT"/>
-      <sheetName val="Фитбэк"/>
-      <sheetName val="Тест кейсы"/>
-      <sheetName val="Отчет по тестированию"/>
-      <sheetName val="Команды SQL"/>
-      <sheetName val="Вопросы на собеседованиях про S"/>
-      <sheetName val="Словарь"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-      <sheetData sheetId="8"/>
-      <sheetData sheetId="9"/>
-      <sheetData sheetId="10"/>
-      <sheetData sheetId="11">
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>Критических</v>
-          </cell>
-          <cell r="B39">
-            <v>5</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="A40" t="str">
-            <v>Высокий</v>
-          </cell>
-          <cell r="B40">
-            <v>10</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="A41" t="str">
-            <v>Средний</v>
-          </cell>
-          <cell r="B41">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="C48" t="str">
-            <v>FE</v>
-          </cell>
-          <cell r="D48" t="str">
-            <v>BE</v>
-          </cell>
-          <cell r="E48" t="str">
-            <v>RN Это Мобил</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="C59">
-            <v>4</v>
-          </cell>
-          <cell r="D59">
-            <v>2</v>
-          </cell>
-          <cell r="E59">
-            <v>3</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>Критических</v>
-          </cell>
-          <cell r="B63">
-            <v>50</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>Высокий</v>
-          </cell>
-          <cell r="B64">
-            <v>100</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>Средний</v>
-          </cell>
-          <cell r="B65">
-            <v>120</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>Низкий</v>
-          </cell>
-          <cell r="B66">
-            <v>30</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="12"/>
-      <sheetData sheetId="13"/>
-      <sheetData sheetId="14"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
@@ -6925,15 +6868,15 @@
   <dimension ref="A1:K122"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="B45" sqref="B45:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="2" max="2" width="51.5703125" customWidth="1"/>
     <col min="3" max="3" width="40.85546875" customWidth="1"/>
     <col min="4" max="4" width="51.5703125" customWidth="1"/>
@@ -6944,26 +6887,26 @@
     <col min="11" max="11" width="27.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" ht="31.5">
+      <c r="A1" s="209" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="209" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="209" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="209" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="209" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="209" t="s">
         <v>7</v>
       </c>
       <c r="H1" s="1"/>
@@ -6971,1411 +6914,1506 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:11" ht="18.75">
-      <c r="A2" s="121" t="s">
+    <row r="2" spans="1:11" ht="15.75">
+      <c r="A2" s="148" t="s">
         <v>107</v>
       </c>
-      <c r="B2" s="122"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
-      <c r="G2" s="124"/>
+      <c r="B2" s="149"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="151"/>
     </row>
     <row r="3" spans="1:11" ht="85.5" customHeight="1">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="18" t="s">
+      <c r="A3" s="125"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="143" t="s">
         <v>106</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" ht="30">
-      <c r="A4" s="35" t="s">
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
+      <c r="G3" s="125"/>
+    </row>
+    <row r="4" spans="1:11" ht="31.5">
+      <c r="A4" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="125" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="154" t="s">
+      <c r="C4" s="153" t="s">
         <v>105</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="125" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="143" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="36" t="s">
+      <c r="F4" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" ht="30">
-      <c r="A5" s="110" t="s">
+      <c r="G4" s="125"/>
+    </row>
+    <row r="5" spans="1:11" ht="31.5">
+      <c r="A5" s="155" t="s">
         <v>34</v>
       </c>
-      <c r="B5" s="125" t="s">
+      <c r="B5" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="155"/>
-      <c r="D5" s="17" t="s">
+      <c r="C5" s="157"/>
+      <c r="D5" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="88" t="s">
+      <c r="E5" s="158" t="s">
         <v>108</v>
       </c>
-      <c r="F5" s="102" t="s">
+      <c r="F5" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="110"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="111"/>
-      <c r="B6" s="126"/>
-      <c r="C6" s="155"/>
-      <c r="D6" s="17" t="s">
+      <c r="G5" s="155"/>
+    </row>
+    <row r="6" spans="1:11" ht="15.75">
+      <c r="A6" s="160"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="157"/>
+      <c r="D6" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="89"/>
-      <c r="F6" s="111"/>
-      <c r="G6" s="111"/>
-    </row>
-    <row r="7" spans="1:11" ht="30">
-      <c r="A7" s="110" t="s">
+      <c r="E6" s="162"/>
+      <c r="F6" s="160"/>
+      <c r="G6" s="160"/>
+    </row>
+    <row r="7" spans="1:11" ht="31.5">
+      <c r="A7" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="125" t="s">
+      <c r="B7" s="156" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="155"/>
-      <c r="D7" s="17" t="s">
+      <c r="C7" s="157"/>
+      <c r="D7" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="E7" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="F7" s="102" t="s">
+      <c r="F7" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="110"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="111"/>
-      <c r="B8" s="126"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="31" t="s">
+      <c r="G7" s="155"/>
+    </row>
+    <row r="8" spans="1:11" ht="15.75">
+      <c r="A8" s="160"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="132" t="s">
         <v>110</v>
       </c>
-      <c r="E8" s="89"/>
-      <c r="F8" s="103"/>
-      <c r="G8" s="111"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="164"/>
+      <c r="G8" s="160"/>
     </row>
     <row r="9" spans="1:11" ht="15.75">
-      <c r="A9" s="6"/>
-      <c r="B9" s="127" t="s">
+      <c r="A9" s="125"/>
+      <c r="B9" s="63" t="s">
         <v>123</v>
       </c>
-      <c r="C9" s="128"/>
-      <c r="D9" s="128"/>
-      <c r="E9" s="128"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
     </row>
     <row r="10" spans="1:11" ht="41.25" customHeight="1">
-      <c r="A10" s="39"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="17" t="s">
+      <c r="A10" s="165"/>
+      <c r="B10" s="166"/>
+      <c r="C10" s="131" t="s">
         <v>139</v>
       </c>
-      <c r="D10" s="41"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="46" t="s">
+      <c r="D10" s="167"/>
+      <c r="E10" s="168"/>
+      <c r="F10" s="169"/>
+      <c r="G10" s="170" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30.75" customHeight="1">
-      <c r="A11" s="110" t="s">
+      <c r="A11" s="155" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="88" t="s">
+      <c r="B11" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="154" t="s">
+      <c r="C11" s="153" t="s">
         <v>113</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="131" t="s">
         <v>127</v>
       </c>
-      <c r="E11" s="88" t="s">
+      <c r="E11" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="F11" s="102" t="s">
+      <c r="F11" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="110"/>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="111"/>
-      <c r="B12" s="89"/>
-      <c r="C12" s="155"/>
-      <c r="D12" s="17" t="s">
+      <c r="G11" s="155"/>
+    </row>
+    <row r="12" spans="1:11" ht="15.75">
+      <c r="A12" s="160"/>
+      <c r="B12" s="162"/>
+      <c r="C12" s="157"/>
+      <c r="D12" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E12" s="89"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="111"/>
+      <c r="E12" s="162"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="160"/>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1">
-      <c r="A13" s="110" t="s">
+      <c r="A13" s="155" t="s">
         <v>42</v>
       </c>
-      <c r="B13" s="88" t="s">
+      <c r="B13" s="158" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="155"/>
-      <c r="D13" s="17" t="s">
+      <c r="C13" s="157"/>
+      <c r="D13" s="131" t="s">
         <v>128</v>
       </c>
-      <c r="E13" s="88" t="s">
+      <c r="E13" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="F13" s="102" t="s">
+      <c r="F13" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="G13" s="44"/>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="111"/>
-      <c r="B14" s="89"/>
-      <c r="C14" s="155"/>
-      <c r="D14" s="17" t="s">
+      <c r="G13" s="171"/>
+    </row>
+    <row r="14" spans="1:11" ht="15.75">
+      <c r="A14" s="160"/>
+      <c r="B14" s="162"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E14" s="89"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="44"/>
+      <c r="E14" s="162"/>
+      <c r="F14" s="164"/>
+      <c r="G14" s="171"/>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1">
-      <c r="A15" s="110" t="s">
+      <c r="A15" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="B15" s="88" t="s">
+      <c r="B15" s="158" t="s">
         <v>126</v>
       </c>
-      <c r="C15" s="155"/>
-      <c r="D15" s="17" t="s">
+      <c r="C15" s="157"/>
+      <c r="D15" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="88" t="s">
+      <c r="E15" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="102" t="s">
+      <c r="F15" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="G15" s="44"/>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="111"/>
-      <c r="B16" s="89"/>
-      <c r="C16" s="155"/>
-      <c r="D16" s="17" t="s">
+      <c r="G15" s="171"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75">
+      <c r="A16" s="160"/>
+      <c r="B16" s="162"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="89"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="44"/>
+      <c r="E16" s="162"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="171"/>
     </row>
     <row r="17" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A17" s="110" t="s">
+      <c r="A17" s="155" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="88" t="s">
+      <c r="B17" s="158" t="s">
         <v>115</v>
       </c>
-      <c r="C17" s="155"/>
-      <c r="D17" s="17" t="s">
+      <c r="C17" s="157"/>
+      <c r="D17" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="E17" s="88" t="s">
+      <c r="E17" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="F17" s="108" t="s">
+      <c r="F17" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="G17" s="110"/>
+      <c r="G17" s="155"/>
     </row>
     <row r="18" spans="1:9" ht="16.5" customHeight="1">
-      <c r="A18" s="111"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="155"/>
-      <c r="D18" s="17" t="s">
+      <c r="A18" s="160"/>
+      <c r="B18" s="162"/>
+      <c r="C18" s="157"/>
+      <c r="D18" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E18" s="89"/>
-      <c r="F18" s="109"/>
-      <c r="G18" s="111"/>
+      <c r="E18" s="162"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="160"/>
     </row>
     <row r="19" spans="1:9" ht="34.5" customHeight="1">
-      <c r="A19" s="110" t="s">
+      <c r="A19" s="155" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="88" t="s">
+      <c r="B19" s="158" t="s">
         <v>117</v>
       </c>
-      <c r="C19" s="155"/>
-      <c r="D19" s="17" t="s">
+      <c r="C19" s="157"/>
+      <c r="D19" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="E19" s="88" t="s">
+      <c r="E19" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="F19" s="108" t="s">
+      <c r="F19" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="110"/>
+      <c r="G19" s="155"/>
     </row>
     <row r="20" spans="1:9" ht="20.25" customHeight="1">
-      <c r="A20" s="111"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="155"/>
-      <c r="D20" s="17" t="s">
+      <c r="A20" s="160"/>
+      <c r="B20" s="162"/>
+      <c r="C20" s="157"/>
+      <c r="D20" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E20" s="89"/>
-      <c r="F20" s="109"/>
-      <c r="G20" s="111"/>
+      <c r="E20" s="162"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="160"/>
     </row>
     <row r="21" spans="1:9" ht="15" customHeight="1">
-      <c r="A21" s="110" t="s">
+      <c r="A21" s="155" t="s">
         <v>47</v>
       </c>
-      <c r="B21" s="88" t="s">
+      <c r="B21" s="158" t="s">
         <v>130</v>
       </c>
-      <c r="C21" s="155"/>
-      <c r="D21" s="17" t="s">
+      <c r="C21" s="157"/>
+      <c r="D21" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="E21" s="88" t="s">
+      <c r="E21" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="F21" s="108" t="s">
+      <c r="F21" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="G21" s="116" t="s">
+      <c r="G21" s="174" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A22" s="111"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="155"/>
-      <c r="D22" s="17" t="s">
+      <c r="A22" s="160"/>
+      <c r="B22" s="162"/>
+      <c r="C22" s="157"/>
+      <c r="D22" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E22" s="89"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="117"/>
+      <c r="E22" s="162"/>
+      <c r="F22" s="173"/>
+      <c r="G22" s="175"/>
     </row>
     <row r="23" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A23" s="110" t="s">
+      <c r="A23" s="155" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="158" t="s">
         <v>119</v>
       </c>
-      <c r="C23" s="155"/>
-      <c r="D23" s="19" t="s">
+      <c r="C23" s="157"/>
+      <c r="D23" s="143" t="s">
         <v>120</v>
       </c>
-      <c r="E23" s="88" t="s">
+      <c r="E23" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="102" t="s">
+      <c r="F23" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="110"/>
+      <c r="G23" s="155"/>
     </row>
     <row r="24" spans="1:9" ht="24.75" customHeight="1">
-      <c r="A24" s="111"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="155"/>
-      <c r="D24" s="19" t="s">
+      <c r="A24" s="160"/>
+      <c r="B24" s="162"/>
+      <c r="C24" s="157"/>
+      <c r="D24" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="E24" s="89"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="111"/>
+      <c r="E24" s="162"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="160"/>
     </row>
     <row r="25" spans="1:9" ht="30" customHeight="1">
-      <c r="A25" s="110" t="s">
+      <c r="A25" s="155" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="88" t="s">
+      <c r="B25" s="158" t="s">
         <v>46</v>
       </c>
-      <c r="C25" s="155"/>
-      <c r="D25" s="17" t="s">
+      <c r="C25" s="157"/>
+      <c r="D25" s="131" t="s">
         <v>121</v>
       </c>
-      <c r="E25" s="88" t="s">
+      <c r="E25" s="158" t="s">
         <v>114</v>
       </c>
-      <c r="F25" s="102" t="s">
+      <c r="F25" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="110"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="111"/>
-      <c r="B26" s="89"/>
-      <c r="C26" s="156"/>
-      <c r="D26" s="17" t="s">
+      <c r="G25" s="155"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75">
+      <c r="A26" s="160"/>
+      <c r="B26" s="162"/>
+      <c r="C26" s="163"/>
+      <c r="D26" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="89"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="111"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="164"/>
+      <c r="G26" s="160"/>
     </row>
     <row r="27" spans="1:9" ht="15.75">
-      <c r="A27" s="6"/>
-      <c r="B27" s="118" t="s">
+      <c r="A27" s="125"/>
+      <c r="B27" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="119"/>
-      <c r="E27" s="120"/>
-      <c r="F27" s="21"/>
-      <c r="G27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="6"/>
-      <c r="B28" s="45"/>
-      <c r="C28" s="17" t="s">
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
+      <c r="F27" s="134"/>
+      <c r="G27" s="125"/>
+    </row>
+    <row r="28" spans="1:9" ht="31.5">
+      <c r="A28" s="125"/>
+      <c r="B28" s="16"/>
+      <c r="C28" s="131" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="45"/>
-      <c r="E28" s="19"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="6"/>
+      <c r="D28" s="16"/>
+      <c r="E28" s="143"/>
+      <c r="F28" s="134"/>
+      <c r="G28" s="125"/>
     </row>
     <row r="29" spans="1:9" ht="15" customHeight="1">
-      <c r="A29" s="110" t="s">
+      <c r="A29" s="155" t="s">
         <v>51</v>
       </c>
-      <c r="B29" s="88" t="s">
+      <c r="B29" s="158" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="154" t="s">
+      <c r="C29" s="153" t="s">
         <v>141</v>
       </c>
-      <c r="D29" s="19" t="s">
+      <c r="D29" s="143" t="s">
         <v>134</v>
       </c>
-      <c r="E29" s="88" t="s">
+      <c r="E29" s="158" t="s">
         <v>135</v>
       </c>
-      <c r="F29" s="102" t="s">
+      <c r="F29" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="G29" s="6"/>
+      <c r="G29" s="125"/>
     </row>
     <row r="30" spans="1:9" ht="63.75" customHeight="1">
-      <c r="A30" s="111"/>
-      <c r="B30" s="89"/>
-      <c r="C30" s="155"/>
-      <c r="D30" s="19" t="s">
+      <c r="A30" s="160"/>
+      <c r="B30" s="162"/>
+      <c r="C30" s="157"/>
+      <c r="D30" s="143" t="s">
         <v>110</v>
       </c>
-      <c r="E30" s="89"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="6"/>
+      <c r="E30" s="162"/>
+      <c r="F30" s="164"/>
+      <c r="G30" s="125"/>
     </row>
     <row r="31" spans="1:9" ht="30" customHeight="1">
-      <c r="A31" s="110" t="s">
+      <c r="A31" s="155" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="88" t="s">
+      <c r="B31" s="158" t="s">
         <v>136</v>
       </c>
-      <c r="C31" s="155"/>
-      <c r="D31" s="17" t="s">
+      <c r="C31" s="157"/>
+      <c r="D31" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="E31" s="88" t="s">
+      <c r="E31" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="F31" s="108" t="s">
+      <c r="F31" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="1:9" ht="49.5" customHeight="1">
-      <c r="A32" s="111"/>
-      <c r="B32" s="89"/>
-      <c r="C32" s="155"/>
-      <c r="D32" s="17" t="s">
+      <c r="A32" s="160"/>
+      <c r="B32" s="162"/>
+      <c r="C32" s="157"/>
+      <c r="D32" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E32" s="89"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
+      <c r="E32" s="162"/>
+      <c r="F32" s="173"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="1:9" ht="30" customHeight="1">
-      <c r="A33" s="110" t="s">
+      <c r="A33" s="155" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="88" t="s">
+      <c r="B33" s="158" t="s">
         <v>189</v>
       </c>
-      <c r="C33" s="155"/>
-      <c r="D33" s="17" t="s">
+      <c r="C33" s="157"/>
+      <c r="D33" s="131" t="s">
         <v>138</v>
       </c>
-      <c r="E33" s="88" t="s">
+      <c r="E33" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="F33" s="108" t="s">
+      <c r="F33" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
+      <c r="G33" s="125"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="1:9" ht="44.25" customHeight="1">
-      <c r="A34" s="111"/>
-      <c r="B34" s="89"/>
-      <c r="C34" s="156"/>
-      <c r="D34" s="17" t="s">
+      <c r="A34" s="160"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="163"/>
+      <c r="D34" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="89"/>
-      <c r="F34" s="109"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
+      <c r="E34" s="162"/>
+      <c r="F34" s="173"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="1:9" ht="30" customHeight="1">
-      <c r="A35" s="112" t="s">
+      <c r="A35" s="176" t="s">
         <v>57</v>
       </c>
-      <c r="B35" s="114" t="s">
+      <c r="B35" s="177" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="88" t="s">
+      <c r="C35" s="158" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="17" t="s">
+      <c r="D35" s="131" t="s">
         <v>144</v>
       </c>
-      <c r="E35" s="88" t="s">
+      <c r="E35" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="F35" s="108" t="s">
+      <c r="F35" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="G35" s="21"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="9"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="5"/>
     </row>
     <row r="36" spans="1:9" ht="38.25" customHeight="1">
-      <c r="A36" s="113"/>
-      <c r="B36" s="115"/>
-      <c r="C36" s="89"/>
-      <c r="D36" s="17" t="s">
+      <c r="A36" s="178"/>
+      <c r="B36" s="179"/>
+      <c r="C36" s="162"/>
+      <c r="D36" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="89"/>
-      <c r="F36" s="109"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="9"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="173"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="5"/>
     </row>
     <row r="37" spans="1:9" ht="30" customHeight="1">
-      <c r="A37" s="112" t="s">
+      <c r="A37" s="176" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="88" t="s">
+      <c r="B37" s="158" t="s">
         <v>145</v>
       </c>
-      <c r="C37" s="88" t="s">
+      <c r="C37" s="158" t="s">
         <v>146</v>
       </c>
-      <c r="D37" s="17" t="s">
+      <c r="D37" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="88" t="s">
+      <c r="E37" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="108" t="s">
+      <c r="F37" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="G37" s="21"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="9"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="6"/>
+      <c r="I37" s="5"/>
     </row>
     <row r="38" spans="1:9" ht="28.5" customHeight="1">
-      <c r="A38" s="113"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="17" t="s">
+      <c r="A38" s="178"/>
+      <c r="B38" s="162"/>
+      <c r="C38" s="162"/>
+      <c r="D38" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E38" s="89"/>
-      <c r="F38" s="109"/>
-      <c r="G38" s="21"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="1:9" ht="30">
-      <c r="A39" s="110" t="s">
+      <c r="E38" s="162"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="5"/>
+    </row>
+    <row r="39" spans="1:9" ht="31.5">
+      <c r="A39" s="155" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="88" t="s">
+      <c r="B39" s="158" t="s">
         <v>148</v>
       </c>
-      <c r="C39" s="88" t="s">
+      <c r="C39" s="158" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="17" t="s">
+      <c r="D39" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="E39" s="88" t="s">
+      <c r="E39" s="158" t="s">
         <v>135</v>
       </c>
-      <c r="F39" s="102" t="s">
+      <c r="F39" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="21"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="9"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="6"/>
+      <c r="I39" s="5"/>
     </row>
     <row r="40" spans="1:9" ht="29.25" customHeight="1">
-      <c r="A40" s="111"/>
-      <c r="B40" s="89"/>
-      <c r="C40" s="89"/>
-      <c r="D40" s="17" t="s">
+      <c r="A40" s="160"/>
+      <c r="B40" s="162"/>
+      <c r="C40" s="162"/>
+      <c r="D40" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E40" s="89"/>
-      <c r="F40" s="103"/>
-      <c r="G40" s="21"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="9"/>
+      <c r="E40" s="162"/>
+      <c r="F40" s="164"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="6"/>
+      <c r="I40" s="5"/>
     </row>
     <row r="41" spans="1:9" ht="30" customHeight="1">
-      <c r="A41" s="110" t="s">
+      <c r="A41" s="155" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="88" t="s">
+      <c r="B41" s="158" t="s">
         <v>190</v>
       </c>
-      <c r="C41" s="88" t="s">
+      <c r="C41" s="158" t="s">
         <v>141</v>
       </c>
-      <c r="D41" s="17" t="s">
+      <c r="D41" s="131" t="s">
         <v>191</v>
       </c>
-      <c r="E41" s="88" t="s">
+      <c r="E41" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="108" t="s">
+      <c r="F41" s="172" t="s">
         <v>6</v>
       </c>
-      <c r="G41" s="21"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="9"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="5"/>
     </row>
     <row r="42" spans="1:9" ht="45" customHeight="1">
-      <c r="A42" s="111"/>
-      <c r="B42" s="89"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="17" t="s">
+      <c r="A42" s="160"/>
+      <c r="B42" s="162"/>
+      <c r="C42" s="162"/>
+      <c r="D42" s="131" t="s">
         <v>110</v>
       </c>
-      <c r="E42" s="89"/>
-      <c r="F42" s="109"/>
-      <c r="G42" s="21"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="9"/>
-    </row>
-    <row r="43" spans="1:9" ht="18">
-      <c r="A43" s="20"/>
-      <c r="B43" s="90" t="s">
+      <c r="E42" s="162"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="6"/>
+      <c r="I42" s="5"/>
+    </row>
+    <row r="43" spans="1:9" ht="15.75">
+      <c r="A43" s="180"/>
+      <c r="B43" s="181" t="s">
         <v>150</v>
       </c>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="21"/>
-      <c r="G43" s="21"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="9"/>
-    </row>
-    <row r="44" spans="1:9" ht="60" customHeight="1">
-      <c r="A44" s="47" t="s">
+      <c r="C43" s="182"/>
+      <c r="D43" s="182"/>
+      <c r="E43" s="183"/>
+      <c r="F43" s="134"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="5"/>
+    </row>
+    <row r="44" spans="1:9" ht="37.5" customHeight="1">
+      <c r="A44" s="184" t="s">
         <v>61</v>
       </c>
-      <c r="B44" s="22" t="s">
+      <c r="B44" s="185" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="154" t="s">
+      <c r="C44" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="D44" s="22" t="s">
+      <c r="D44" s="185" t="s">
         <v>111</v>
       </c>
-      <c r="E44" s="4" t="s">
+      <c r="E44" s="123" t="s">
         <v>55</v>
       </c>
-      <c r="F44" s="36" t="s">
+      <c r="F44" s="154" t="s">
         <v>5</v>
       </c>
-      <c r="G44" s="21"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="9"/>
-    </row>
-    <row r="45" spans="1:9" ht="48.75" customHeight="1">
-      <c r="A45" s="82" t="s">
+      <c r="G44" s="134"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="5"/>
+    </row>
+    <row r="45" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A45" s="186" t="s">
         <v>62</v>
       </c>
-      <c r="B45" s="104" t="s">
+      <c r="B45" s="187" t="s">
         <v>155</v>
       </c>
-      <c r="C45" s="155"/>
-      <c r="D45" s="22" t="s">
+      <c r="C45" s="157"/>
+      <c r="D45" s="185" t="s">
         <v>152</v>
       </c>
-      <c r="E45" s="100" t="s">
+      <c r="E45" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="F45" s="102" t="s">
+      <c r="F45" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="G45" s="21"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="9"/>
-    </row>
-    <row r="46" spans="1:9" ht="18" customHeight="1">
-      <c r="A46" s="83"/>
-      <c r="B46" s="105"/>
-      <c r="C46" s="155"/>
-      <c r="D46" s="22" t="s">
+      <c r="G45" s="134"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="5"/>
+    </row>
+    <row r="46" spans="1:9" ht="18" hidden="1" customHeight="1">
+      <c r="A46" s="189"/>
+      <c r="B46" s="190"/>
+      <c r="C46" s="157"/>
+      <c r="D46" s="185" t="s">
         <v>110</v>
       </c>
-      <c r="E46" s="101"/>
-      <c r="F46" s="103"/>
-      <c r="G46" s="21"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="9"/>
+      <c r="E46" s="191"/>
+      <c r="F46" s="164"/>
+      <c r="G46" s="134"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="5"/>
     </row>
     <row r="47" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A47" s="82" t="s">
+      <c r="A47" s="186" t="s">
         <v>63</v>
       </c>
-      <c r="B47" s="104" t="s">
+      <c r="B47" s="187" t="s">
         <v>156</v>
       </c>
-      <c r="C47" s="155"/>
-      <c r="D47" s="22" t="s">
+      <c r="C47" s="157"/>
+      <c r="D47" s="185" t="s">
         <v>154</v>
       </c>
-      <c r="E47" s="100" t="s">
+      <c r="E47" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="F47" s="102" t="s">
+      <c r="F47" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="21"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="9"/>
-    </row>
-    <row r="48" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A48" s="83"/>
-      <c r="B48" s="105"/>
-      <c r="C48" s="155"/>
-      <c r="D48" s="22" t="s">
+      <c r="G47" s="134"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="5"/>
+    </row>
+    <row r="48" spans="1:9" ht="21" customHeight="1">
+      <c r="A48" s="189"/>
+      <c r="B48" s="190"/>
+      <c r="C48" s="157"/>
+      <c r="D48" s="185" t="s">
         <v>110</v>
       </c>
-      <c r="E48" s="101"/>
-      <c r="F48" s="103"/>
-      <c r="G48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A49" s="82" t="s">
+      <c r="E48" s="191"/>
+      <c r="F48" s="164"/>
+      <c r="G48" s="192"/>
+      <c r="H48" s="6"/>
+      <c r="I48" s="5"/>
+    </row>
+    <row r="49" spans="1:9" ht="29.25" customHeight="1">
+      <c r="A49" s="186" t="s">
         <v>64</v>
       </c>
-      <c r="B49" s="104" t="s">
+      <c r="B49" s="187" t="s">
         <v>157</v>
       </c>
-      <c r="C49" s="155"/>
-      <c r="D49" s="22" t="s">
+      <c r="C49" s="157"/>
+      <c r="D49" s="185" t="s">
         <v>160</v>
       </c>
-      <c r="E49" s="100" t="s">
+      <c r="E49" s="188" t="s">
         <v>39</v>
       </c>
-      <c r="F49" s="102" t="s">
+      <c r="F49" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="G49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="9"/>
-    </row>
-    <row r="50" spans="1:9" ht="39" customHeight="1">
-      <c r="A50" s="83"/>
-      <c r="B50" s="105"/>
-      <c r="C50" s="155"/>
-      <c r="D50" s="22" t="s">
+      <c r="G49" s="192"/>
+      <c r="H49" s="6"/>
+      <c r="I49" s="5"/>
+    </row>
+    <row r="50" spans="1:9" ht="24" customHeight="1">
+      <c r="A50" s="189"/>
+      <c r="B50" s="190"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="185" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="101"/>
-      <c r="F50" s="103"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A51" s="82" t="s">
+      <c r="E50" s="191"/>
+      <c r="F50" s="164"/>
+      <c r="G50" s="192"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="5"/>
+    </row>
+    <row r="51" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A51" s="186" t="s">
         <v>66</v>
       </c>
-      <c r="B51" s="104" t="s">
+      <c r="B51" s="187" t="s">
         <v>158</v>
       </c>
-      <c r="C51" s="155"/>
-      <c r="D51" s="22" t="s">
+      <c r="C51" s="157"/>
+      <c r="D51" s="185" t="s">
         <v>161</v>
       </c>
-      <c r="E51" s="100" t="s">
+      <c r="E51" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="F51" s="102" t="s">
+      <c r="F51" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="G51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="9"/>
-    </row>
-    <row r="52" spans="1:9" ht="36" customHeight="1">
-      <c r="A52" s="83"/>
-      <c r="B52" s="105"/>
-      <c r="C52" s="155"/>
-      <c r="D52" s="22" t="s">
+      <c r="G51" s="192"/>
+      <c r="H51" s="6"/>
+      <c r="I51" s="5"/>
+    </row>
+    <row r="52" spans="1:9" ht="24.75" customHeight="1">
+      <c r="A52" s="189"/>
+      <c r="B52" s="190"/>
+      <c r="C52" s="157"/>
+      <c r="D52" s="185" t="s">
         <v>110</v>
       </c>
-      <c r="E52" s="101"/>
-      <c r="F52" s="103"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="9"/>
+      <c r="E52" s="191"/>
+      <c r="F52" s="164"/>
+      <c r="G52" s="192"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="5"/>
     </row>
     <row r="53" spans="1:9" ht="15" customHeight="1">
-      <c r="A53" s="82" t="s">
+      <c r="A53" s="186" t="s">
         <v>153</v>
       </c>
-      <c r="B53" s="104" t="s">
+      <c r="B53" s="187" t="s">
         <v>159</v>
       </c>
-      <c r="C53" s="155"/>
-      <c r="D53" s="22" t="s">
+      <c r="C53" s="157"/>
+      <c r="D53" s="185" t="s">
         <v>162</v>
       </c>
-      <c r="E53" s="100" t="s">
+      <c r="E53" s="188" t="s">
         <v>56</v>
       </c>
-      <c r="F53" s="102" t="s">
+      <c r="F53" s="159" t="s">
         <v>5</v>
       </c>
-      <c r="G53" s="10"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="9"/>
+      <c r="G53" s="192"/>
+      <c r="H53" s="6"/>
+      <c r="I53" s="5"/>
     </row>
     <row r="54" spans="1:9" ht="48" customHeight="1">
-      <c r="A54" s="83"/>
-      <c r="B54" s="105"/>
-      <c r="C54" s="156"/>
-      <c r="D54" s="22" t="s">
+      <c r="A54" s="189"/>
+      <c r="B54" s="190"/>
+      <c r="C54" s="163"/>
+      <c r="D54" s="185" t="s">
         <v>110</v>
       </c>
-      <c r="E54" s="101"/>
-      <c r="F54" s="103"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="9"/>
+      <c r="E54" s="191"/>
+      <c r="F54" s="164"/>
+      <c r="G54" s="192"/>
+      <c r="H54" s="6"/>
+      <c r="I54" s="5"/>
     </row>
     <row r="55" spans="1:9" ht="21" customHeight="1">
-      <c r="A55" s="48"/>
-      <c r="B55" s="90" t="s">
+      <c r="A55" s="193"/>
+      <c r="B55" s="181" t="s">
         <v>163</v>
       </c>
-      <c r="C55" s="91"/>
-      <c r="D55" s="91"/>
-      <c r="E55" s="92"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="9"/>
+      <c r="C55" s="194"/>
+      <c r="D55" s="194"/>
+      <c r="E55" s="195"/>
+      <c r="F55" s="196"/>
+      <c r="G55" s="192"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="5"/>
     </row>
     <row r="56" spans="1:9" ht="15" customHeight="1">
-      <c r="A56" s="93" t="s">
+      <c r="A56" s="197" t="s">
         <v>164</v>
       </c>
-      <c r="B56" s="96" t="s">
+      <c r="B56" s="198" t="s">
         <v>165</v>
       </c>
-      <c r="C56" s="88" t="s">
+      <c r="C56" s="158" t="s">
         <v>166</v>
       </c>
-      <c r="D56" s="22" t="s">
+      <c r="D56" s="185" t="s">
         <v>172</v>
       </c>
-      <c r="E56" s="19" t="s">
+      <c r="E56" s="143" t="s">
         <v>167</v>
       </c>
-      <c r="F56" s="32" t="s">
+      <c r="F56" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="G56" s="10"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="10"/>
-    </row>
-    <row r="57" spans="1:9" ht="21.75" customHeight="1">
-      <c r="A57" s="94"/>
-      <c r="B57" s="97"/>
-      <c r="C57" s="99"/>
-      <c r="D57" s="22" t="s">
+      <c r="G56" s="192"/>
+      <c r="H56" s="6"/>
+      <c r="I56" s="6"/>
+    </row>
+    <row r="57" spans="1:9" ht="31.5" customHeight="1">
+      <c r="A57" s="199"/>
+      <c r="B57" s="200"/>
+      <c r="C57" s="201"/>
+      <c r="D57" s="185" t="s">
         <v>168</v>
       </c>
-      <c r="E57" s="19" t="s">
+      <c r="E57" s="143" t="s">
         <v>169</v>
       </c>
-      <c r="F57" s="32" t="s">
+      <c r="F57" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="G57" s="10"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="10"/>
+      <c r="G57" s="192"/>
+      <c r="H57" s="6"/>
+      <c r="I57" s="6"/>
     </row>
     <row r="58" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A58" s="95"/>
-      <c r="B58" s="98"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="22" t="s">
+      <c r="A58" s="202"/>
+      <c r="B58" s="203"/>
+      <c r="C58" s="162"/>
+      <c r="D58" s="185" t="s">
         <v>170</v>
       </c>
-      <c r="E58" s="19" t="s">
+      <c r="E58" s="143" t="s">
         <v>171</v>
       </c>
-      <c r="F58" s="32" t="s">
+      <c r="F58" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="G58" s="10"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="10"/>
+      <c r="G58" s="192"/>
+      <c r="H58" s="6"/>
+      <c r="I58" s="6"/>
     </row>
     <row r="59" spans="1:9" ht="33.75" customHeight="1">
-      <c r="A59" s="82" t="s">
+      <c r="A59" s="186" t="s">
         <v>179</v>
       </c>
-      <c r="B59" s="86" t="s">
+      <c r="B59" s="204" t="s">
         <v>174</v>
       </c>
-      <c r="C59" s="88" t="s">
+      <c r="C59" s="158" t="s">
         <v>173</v>
       </c>
-      <c r="D59" s="22" t="s">
+      <c r="D59" s="185" t="s">
         <v>175</v>
       </c>
-      <c r="E59" s="4" t="s">
+      <c r="E59" s="123" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="84" t="s">
+      <c r="F59" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="G59" s="10"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="10"/>
+      <c r="G59" s="192"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
     </row>
     <row r="60" spans="1:9" ht="26.25" customHeight="1">
-      <c r="A60" s="83"/>
-      <c r="B60" s="87"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="22" t="s">
+      <c r="A60" s="189"/>
+      <c r="B60" s="206"/>
+      <c r="C60" s="162"/>
+      <c r="D60" s="185" t="s">
         <v>176</v>
       </c>
-      <c r="E60" s="4" t="s">
+      <c r="E60" s="123" t="s">
         <v>178</v>
       </c>
-      <c r="F60" s="85"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-    </row>
-    <row r="61" spans="1:9" ht="30">
-      <c r="A61" s="82" t="s">
+      <c r="F60" s="207"/>
+      <c r="G60" s="192"/>
+      <c r="H60" s="6"/>
+      <c r="I60" s="6"/>
+    </row>
+    <row r="61" spans="1:9" ht="31.5">
+      <c r="A61" s="186" t="s">
         <v>185</v>
       </c>
-      <c r="B61" s="50" t="s">
+      <c r="B61" s="208" t="s">
         <v>180</v>
       </c>
-      <c r="C61" s="88" t="s">
+      <c r="C61" s="158" t="s">
         <v>181</v>
       </c>
-      <c r="D61" s="22" t="s">
+      <c r="D61" s="185" t="s">
         <v>172</v>
       </c>
-      <c r="E61" s="4" t="s">
+      <c r="E61" s="123" t="s">
         <v>182</v>
       </c>
-      <c r="F61" s="84" t="s">
+      <c r="F61" s="205" t="s">
         <v>5</v>
       </c>
-      <c r="G61" s="10"/>
+      <c r="G61" s="192"/>
     </row>
     <row r="62" spans="1:9" ht="50.25" customHeight="1">
-      <c r="A62" s="83"/>
-      <c r="B62" s="22" t="s">
+      <c r="A62" s="189"/>
+      <c r="B62" s="185" t="s">
         <v>65</v>
       </c>
-      <c r="C62" s="89"/>
-      <c r="D62" s="22" t="s">
+      <c r="C62" s="162"/>
+      <c r="D62" s="185" t="s">
         <v>183</v>
       </c>
-      <c r="E62" s="4" t="s">
+      <c r="E62" s="123" t="s">
         <v>184</v>
       </c>
-      <c r="F62" s="85"/>
-      <c r="G62" s="10"/>
+      <c r="F62" s="207"/>
+      <c r="G62" s="192"/>
     </row>
     <row r="63" spans="1:9">
-      <c r="A63" s="13"/>
-      <c r="F63" s="10"/>
+      <c r="A63" s="9"/>
+      <c r="F63" s="6"/>
     </row>
     <row r="64" spans="1:9">
-      <c r="A64" s="13"/>
-      <c r="F64" s="10"/>
+      <c r="A64" s="9"/>
+      <c r="F64" s="6"/>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="13"/>
-      <c r="B65" s="9"/>
-      <c r="C65" s="13"/>
-      <c r="D65" s="9"/>
-      <c r="E65" s="9"/>
-      <c r="F65" s="10"/>
+      <c r="A65" s="9"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="6"/>
     </row>
     <row r="66" spans="1:6" ht="18.75" customHeight="1">
-      <c r="A66" s="13"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="13"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="13"/>
-      <c r="F66" s="10"/>
+      <c r="A66" s="9"/>
+      <c r="B66" s="6"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="9"/>
+      <c r="F66" s="6"/>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="13"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="13"/>
-      <c r="D67" s="10"/>
-      <c r="E67" s="13"/>
+      <c r="A67" s="9"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="9"/>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="9"/>
-      <c r="B68" s="9"/>
-      <c r="C68" s="9"/>
-      <c r="D68" s="9"/>
-      <c r="E68" s="9"/>
+      <c r="A68" s="5"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
+      <c r="E68" s="5"/>
     </row>
     <row r="69" spans="1:6" ht="18">
-      <c r="A69" s="15"/>
-      <c r="B69" s="15"/>
-      <c r="C69" s="15"/>
-      <c r="D69" s="15"/>
-      <c r="E69" s="15"/>
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="11"/>
+      <c r="E69" s="11"/>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="14"/>
-      <c r="B70" s="14"/>
-      <c r="C70" s="14"/>
-      <c r="D70" s="14"/>
-      <c r="E70" s="14"/>
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="13"/>
-      <c r="B71" s="13"/>
-      <c r="C71" s="13"/>
-      <c r="D71" s="13"/>
-      <c r="E71" s="13"/>
+      <c r="A71" s="9"/>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9"/>
+      <c r="E71" s="9"/>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="13"/>
-      <c r="B72" s="13"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="13"/>
-      <c r="E72" s="13"/>
+      <c r="A72" s="9"/>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9"/>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="13"/>
-      <c r="B73" s="13"/>
-      <c r="C73" s="13"/>
-      <c r="D73" s="13"/>
-      <c r="E73" s="13"/>
+      <c r="A73" s="9"/>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="13"/>
-      <c r="B74" s="13"/>
-      <c r="C74" s="13"/>
-      <c r="D74" s="13"/>
-      <c r="E74" s="13"/>
+      <c r="A74" s="9"/>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9"/>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="13"/>
-      <c r="B75" s="13"/>
-      <c r="C75" s="13"/>
-      <c r="D75" s="13"/>
-      <c r="E75" s="13"/>
+      <c r="A75" s="9"/>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="13"/>
-      <c r="B76" s="13"/>
-      <c r="C76" s="13"/>
-      <c r="D76" s="13"/>
-      <c r="E76" s="13"/>
+      <c r="A76" s="9"/>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9"/>
     </row>
     <row r="77" spans="1:6">
-      <c r="A77" s="13"/>
-      <c r="B77" s="13"/>
-      <c r="C77" s="13"/>
-      <c r="D77" s="13"/>
-      <c r="E77" s="13"/>
+      <c r="A77" s="9"/>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9"/>
     </row>
     <row r="78" spans="1:6">
-      <c r="A78" s="13"/>
-      <c r="B78" s="13"/>
-      <c r="C78" s="13"/>
-      <c r="D78" s="13"/>
-      <c r="E78" s="13"/>
+      <c r="A78" s="9"/>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9"/>
     </row>
     <row r="79" spans="1:6">
-      <c r="A79" s="13"/>
-      <c r="B79" s="13"/>
-      <c r="C79" s="13"/>
-      <c r="D79" s="13"/>
-      <c r="E79" s="13"/>
+      <c r="A79" s="9"/>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9"/>
     </row>
     <row r="80" spans="1:6">
-      <c r="A80" s="13"/>
-      <c r="B80" s="13"/>
-      <c r="C80" s="13"/>
-      <c r="D80" s="13"/>
-      <c r="E80" s="13"/>
+      <c r="A80" s="9"/>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9"/>
     </row>
     <row r="81" spans="1:5" ht="18.75" customHeight="1">
-      <c r="A81" s="13"/>
-      <c r="B81" s="13"/>
-      <c r="C81" s="13"/>
-      <c r="D81" s="13"/>
-      <c r="E81" s="13"/>
+      <c r="A81" s="9"/>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9"/>
     </row>
     <row r="82" spans="1:5">
-      <c r="A82" s="13"/>
-      <c r="B82" s="13"/>
-      <c r="C82" s="13"/>
-      <c r="D82" s="13"/>
-      <c r="E82" s="13"/>
+      <c r="A82" s="9"/>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="9"/>
     </row>
     <row r="83" spans="1:5">
-      <c r="A83" s="13"/>
-      <c r="B83" s="13"/>
-      <c r="C83" s="13"/>
-      <c r="D83" s="13"/>
-      <c r="E83" s="13"/>
+      <c r="A83" s="9"/>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9"/>
     </row>
     <row r="84" spans="1:5">
-      <c r="A84" s="13"/>
-      <c r="B84" s="13"/>
-      <c r="C84" s="13"/>
-      <c r="D84" s="13"/>
-      <c r="E84" s="13"/>
+      <c r="A84" s="9"/>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9"/>
     </row>
     <row r="85" spans="1:5">
-      <c r="A85" s="13"/>
-      <c r="B85" s="13"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="13"/>
-      <c r="E85" s="13"/>
+      <c r="A85" s="9"/>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9"/>
     </row>
     <row r="86" spans="1:5">
-      <c r="A86" s="13"/>
-      <c r="B86" s="13"/>
-      <c r="C86" s="13"/>
-      <c r="D86" s="13"/>
-      <c r="E86" s="13"/>
+      <c r="A86" s="9"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="9"/>
     </row>
     <row r="87" spans="1:5">
-      <c r="A87" s="13"/>
-      <c r="B87" s="13"/>
-      <c r="C87" s="13"/>
-      <c r="D87" s="13"/>
-      <c r="E87" s="13"/>
+      <c r="A87" s="9"/>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9"/>
     </row>
     <row r="88" spans="1:5">
-      <c r="A88" s="13"/>
-      <c r="B88" s="13"/>
-      <c r="C88" s="13"/>
-      <c r="D88" s="13"/>
-      <c r="E88" s="13"/>
+      <c r="A88" s="9"/>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9"/>
     </row>
     <row r="89" spans="1:5">
-      <c r="A89" s="13"/>
-      <c r="B89" s="13"/>
-      <c r="C89" s="13"/>
-      <c r="D89" s="13"/>
-      <c r="E89" s="13"/>
+      <c r="A89" s="9"/>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9"/>
     </row>
     <row r="90" spans="1:5">
-      <c r="A90" s="13"/>
-      <c r="B90" s="13"/>
-      <c r="C90" s="13"/>
-      <c r="D90" s="13"/>
-      <c r="E90" s="13"/>
+      <c r="A90" s="9"/>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9"/>
     </row>
     <row r="91" spans="1:5">
-      <c r="A91" s="9"/>
-      <c r="B91" s="9"/>
-      <c r="C91" s="9"/>
-      <c r="D91" s="9"/>
-      <c r="E91" s="9"/>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
+      <c r="E91" s="5"/>
     </row>
     <row r="92" spans="1:5" ht="18">
-      <c r="A92" s="15"/>
-      <c r="B92" s="15"/>
-      <c r="C92" s="15"/>
-      <c r="D92" s="15"/>
-      <c r="E92" s="15"/>
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="11"/>
+      <c r="E92" s="11"/>
     </row>
     <row r="93" spans="1:5">
-      <c r="A93" s="14"/>
-      <c r="B93" s="14"/>
-      <c r="C93" s="14"/>
-      <c r="D93" s="14"/>
-      <c r="E93" s="14"/>
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10"/>
     </row>
     <row r="94" spans="1:5">
-      <c r="A94" s="13"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="13"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10"/>
+      <c r="A94" s="9"/>
+      <c r="B94" s="6"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="6"/>
+      <c r="E94" s="6"/>
     </row>
     <row r="95" spans="1:5">
-      <c r="A95" s="13"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="13"/>
-      <c r="D95" s="10"/>
-      <c r="E95" s="10"/>
+      <c r="A95" s="9"/>
+      <c r="B95" s="6"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="6"/>
+      <c r="E95" s="6"/>
     </row>
     <row r="96" spans="1:5">
-      <c r="A96" s="13"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="13"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10"/>
+      <c r="A96" s="9"/>
+      <c r="B96" s="6"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="6"/>
+      <c r="E96" s="6"/>
     </row>
     <row r="97" spans="1:5">
-      <c r="A97" s="13"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="13"/>
-      <c r="D97" s="10"/>
-      <c r="E97" s="10"/>
+      <c r="A97" s="9"/>
+      <c r="B97" s="6"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
     </row>
     <row r="98" spans="1:5">
-      <c r="A98" s="13"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="13"/>
-      <c r="D98" s="10"/>
-      <c r="E98" s="10"/>
+      <c r="A98" s="9"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="6"/>
     </row>
     <row r="99" spans="1:5">
-      <c r="A99" s="13"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="13"/>
-      <c r="D99" s="10"/>
-      <c r="E99" s="10"/>
+      <c r="A99" s="9"/>
+      <c r="B99" s="6"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="6"/>
     </row>
     <row r="100" spans="1:5">
-      <c r="A100" s="13"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="13"/>
-      <c r="D100" s="10"/>
-      <c r="E100" s="10"/>
+      <c r="A100" s="9"/>
+      <c r="B100" s="6"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="6"/>
+      <c r="E100" s="6"/>
     </row>
     <row r="101" spans="1:5">
-      <c r="A101" s="13"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="13"/>
-      <c r="D101" s="10"/>
-      <c r="E101" s="10"/>
+      <c r="A101" s="9"/>
+      <c r="B101" s="6"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="6"/>
     </row>
     <row r="102" spans="1:5">
-      <c r="A102" s="13"/>
-      <c r="B102" s="10"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="10"/>
-      <c r="E102" s="10"/>
+      <c r="A102" s="9"/>
+      <c r="B102" s="6"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6"/>
     </row>
     <row r="103" spans="1:5">
-      <c r="A103" s="13"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="13"/>
-      <c r="D103" s="10"/>
-      <c r="E103" s="10"/>
+      <c r="A103" s="9"/>
+      <c r="B103" s="6"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6"/>
     </row>
     <row r="104" spans="1:5">
-      <c r="A104" s="13"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="13"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
+      <c r="A104" s="9"/>
+      <c r="B104" s="6"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="6"/>
+      <c r="E104" s="6"/>
     </row>
     <row r="105" spans="1:5">
-      <c r="A105" s="9"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="9"/>
-      <c r="D105" s="10"/>
-      <c r="E105" s="10"/>
+      <c r="A105" s="5"/>
+      <c r="B105" s="6"/>
+      <c r="C105" s="5"/>
+      <c r="D105" s="6"/>
+      <c r="E105" s="6"/>
     </row>
     <row r="106" spans="1:5">
-      <c r="A106" s="9"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="9"/>
-      <c r="D106" s="10"/>
-      <c r="E106" s="10"/>
+      <c r="A106" s="5"/>
+      <c r="B106" s="6"/>
+      <c r="C106" s="5"/>
+      <c r="D106" s="6"/>
+      <c r="E106" s="6"/>
     </row>
     <row r="107" spans="1:5" ht="18">
-      <c r="A107" s="15"/>
-      <c r="B107" s="15"/>
-      <c r="C107" s="15"/>
-      <c r="D107" s="15"/>
-      <c r="E107" s="15"/>
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="11"/>
+      <c r="E107" s="11"/>
     </row>
     <row r="108" spans="1:5">
-      <c r="A108" s="14"/>
-      <c r="B108" s="14"/>
-      <c r="C108" s="14"/>
-      <c r="D108" s="14"/>
-      <c r="E108" s="14"/>
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10"/>
     </row>
     <row r="109" spans="1:5">
-      <c r="A109" s="13"/>
-      <c r="B109" s="13"/>
-      <c r="C109" s="13"/>
-      <c r="D109" s="13"/>
-      <c r="E109" s="9"/>
+      <c r="A109" s="9"/>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="5"/>
     </row>
     <row r="110" spans="1:5">
-      <c r="A110" s="13"/>
-      <c r="B110" s="13"/>
-      <c r="C110" s="13"/>
-      <c r="D110" s="13"/>
-      <c r="E110" s="9"/>
+      <c r="A110" s="9"/>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="5"/>
     </row>
     <row r="111" spans="1:5">
-      <c r="A111" s="13"/>
-      <c r="B111" s="13"/>
-      <c r="C111" s="13"/>
-      <c r="D111" s="13"/>
-      <c r="E111" s="9"/>
+      <c r="A111" s="9"/>
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="5"/>
     </row>
     <row r="112" spans="1:5">
-      <c r="A112" s="13"/>
-      <c r="B112" s="13"/>
-      <c r="C112" s="13"/>
-      <c r="D112" s="13"/>
-      <c r="E112" s="9"/>
+      <c r="A112" s="9"/>
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="5"/>
     </row>
     <row r="113" spans="1:5">
-      <c r="A113" s="13"/>
-      <c r="B113" s="13"/>
-      <c r="C113" s="13"/>
-      <c r="D113" s="13"/>
-      <c r="E113" s="9"/>
+      <c r="A113" s="9"/>
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="5"/>
     </row>
     <row r="114" spans="1:5">
-      <c r="A114" s="13"/>
-      <c r="B114" s="13"/>
-      <c r="C114" s="13"/>
-      <c r="D114" s="13"/>
-      <c r="E114" s="23"/>
+      <c r="A114" s="9"/>
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9"/>
+      <c r="E114" s="13"/>
     </row>
     <row r="115" spans="1:5">
-      <c r="A115" s="13"/>
-      <c r="B115" s="13"/>
-      <c r="C115" s="13"/>
-      <c r="D115" s="13"/>
-      <c r="E115" s="9"/>
+      <c r="A115" s="9"/>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9"/>
+      <c r="E115" s="5"/>
     </row>
     <row r="116" spans="1:5">
-      <c r="A116" s="13"/>
-      <c r="B116" s="13"/>
-      <c r="C116" s="13"/>
-      <c r="D116" s="13"/>
-      <c r="E116" s="9"/>
+      <c r="A116" s="9"/>
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9"/>
+      <c r="E116" s="5"/>
     </row>
     <row r="117" spans="1:5">
-      <c r="A117" s="13"/>
-      <c r="B117" s="13"/>
-      <c r="C117" s="13"/>
-      <c r="D117" s="13"/>
-      <c r="E117" s="9"/>
+      <c r="A117" s="9"/>
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9"/>
+      <c r="E117" s="5"/>
     </row>
     <row r="118" spans="1:5">
-      <c r="A118" s="13"/>
-      <c r="B118" s="13"/>
-      <c r="C118" s="13"/>
-      <c r="D118" s="13"/>
-      <c r="E118" s="9"/>
+      <c r="A118" s="9"/>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9"/>
+      <c r="E118" s="5"/>
     </row>
     <row r="119" spans="1:5">
-      <c r="A119" s="13"/>
-      <c r="B119" s="13"/>
-      <c r="C119" s="13"/>
-      <c r="D119" s="13"/>
-      <c r="E119" s="9"/>
+      <c r="A119" s="9"/>
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9"/>
+      <c r="E119" s="5"/>
     </row>
     <row r="120" spans="1:5">
-      <c r="A120" s="13"/>
-      <c r="B120" s="13"/>
-      <c r="C120" s="13"/>
-      <c r="D120" s="13"/>
-      <c r="E120" s="9"/>
+      <c r="A120" s="9"/>
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9"/>
+      <c r="E120" s="5"/>
     </row>
     <row r="121" spans="1:5">
-      <c r="A121" s="13"/>
-      <c r="B121" s="13"/>
-      <c r="C121" s="13"/>
-      <c r="D121" s="13"/>
-      <c r="E121" s="9"/>
+      <c r="A121" s="9"/>
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9"/>
+      <c r="E121" s="5"/>
     </row>
     <row r="122" spans="1:5">
-      <c r="A122" s="9"/>
-      <c r="B122" s="9"/>
-      <c r="C122" s="9"/>
-      <c r="D122" s="9"/>
-      <c r="E122" s="9"/>
+      <c r="A122" s="5"/>
+      <c r="B122" s="5"/>
+      <c r="C122" s="5"/>
+      <c r="D122" s="5"/>
+      <c r="E122" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B55:E55"/>
+    <mergeCell ref="A56:A58"/>
+    <mergeCell ref="B56:B58"/>
+    <mergeCell ref="C56:C58"/>
+    <mergeCell ref="B43:E43"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C44:C54"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="B49:B50"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="C11:C26"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="C4:C8"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="F13:F14"/>
     <mergeCell ref="E31:E32"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:B34"/>
@@ -8400,101 +8438,6 @@
     <mergeCell ref="B19:B20"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="C11:C26"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="C4:C8"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="C41:C42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C44:C54"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="B49:B50"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="C61:C62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B55:E55"/>
-    <mergeCell ref="A56:A58"/>
-    <mergeCell ref="B56:B58"/>
-    <mergeCell ref="C56:C58"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8507,382 +8450,385 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="74.85546875" customWidth="1"/>
+    <col min="2" max="2" width="87.28515625" customWidth="1"/>
     <col min="3" max="3" width="12.5703125" customWidth="1"/>
-    <col min="4" max="4" width="36.5703125" customWidth="1"/>
+    <col min="4" max="4" width="45.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="137" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="137" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="25" t="s">
+      <c r="D1" s="138" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:4" ht="15.75">
+      <c r="A2" s="123" t="s">
         <v>75</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="123" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="6"/>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="4"/>
-      <c r="B3" s="33" t="s">
+      <c r="D2" s="139"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75">
+      <c r="A3" s="123"/>
+      <c r="B3" s="126" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="6"/>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="4" t="s">
+      <c r="C3" s="127"/>
+      <c r="D3" s="139"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75">
+      <c r="A4" s="123" t="s">
         <v>76</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="139" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="32" t="s">
+      <c r="C4" s="140" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="4" t="s">
+      <c r="D4" s="141"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75">
+      <c r="A5" s="123" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="139" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="6"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="4" t="s">
+      <c r="D5" s="139"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75">
+      <c r="A6" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="139" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="27" t="s">
+      <c r="C6" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="139" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:4" ht="15.75">
+      <c r="A7" s="123" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="139" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="27" t="s">
+      <c r="C7" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="139" t="s">
         <v>257</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:4" ht="15.75">
+      <c r="A8" s="123" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="139" t="s">
         <v>71</v>
       </c>
-      <c r="C8" s="27" t="s">
+      <c r="C8" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="139" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:4" ht="15.75">
+      <c r="A9" s="123" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="6" t="s">
+      <c r="B9" s="139" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="6"/>
-    </row>
-    <row r="10" spans="1:4" ht="45">
-      <c r="A10" s="4" t="s">
+      <c r="D9" s="139"/>
+    </row>
+    <row r="10" spans="1:4" ht="39" customHeight="1">
+      <c r="A10" s="123" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="142" t="s">
         <v>72</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D10" s="143" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:4" ht="31.5">
+      <c r="A11" s="123" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="31" t="s">
+      <c r="B11" s="144" t="s">
         <v>73</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="17"/>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="4" t="s">
+      <c r="D11" s="143"/>
+    </row>
+    <row r="12" spans="1:4" ht="15.75">
+      <c r="A12" s="123" t="s">
         <v>84</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="139" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:4" ht="30">
-      <c r="A13" s="4" t="s">
+      <c r="D12" s="143"/>
+    </row>
+    <row r="13" spans="1:4" ht="31.5">
+      <c r="A13" s="123" t="s">
         <v>85</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="17"/>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="4" t="s">
+      <c r="D13" s="143"/>
+    </row>
+    <row r="14" spans="1:4" ht="15.75">
+      <c r="A14" s="123" t="s">
         <v>87</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="17"/>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6"/>
-      <c r="B15" s="34" t="s">
+      <c r="D14" s="143"/>
+    </row>
+    <row r="15" spans="1:4" ht="15.75">
+      <c r="A15" s="139"/>
+      <c r="B15" s="145" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="4" t="s">
+      <c r="C15" s="127"/>
+      <c r="D15" s="143"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75">
+      <c r="A16" s="123" t="s">
         <v>89</v>
       </c>
-      <c r="B16" s="6" t="s">
+      <c r="B16" s="139" t="s">
         <v>256</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6"/>
-      <c r="B17" s="34" t="s">
+      <c r="D16" s="143"/>
+    </row>
+    <row r="17" spans="1:4" ht="15.75">
+      <c r="A17" s="139"/>
+      <c r="B17" s="145" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="5"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4" t="s">
+      <c r="C17" s="127"/>
+      <c r="D17" s="143"/>
+    </row>
+    <row r="18" spans="1:4" ht="15.75">
+      <c r="A18" s="123" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="6" t="s">
+      <c r="B18" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="17"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="4" t="s">
+      <c r="D18" s="143"/>
+    </row>
+    <row r="19" spans="1:4" ht="15.75">
+      <c r="A19" s="123" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="7" t="s">
+      <c r="B19" s="146" t="s">
         <v>93</v>
       </c>
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D19" s="17"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6"/>
-      <c r="B20" s="34" t="s">
+      <c r="D19" s="143"/>
+    </row>
+    <row r="20" spans="1:4" ht="15.75">
+      <c r="A20" s="139"/>
+      <c r="B20" s="145" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="17"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="4" t="s">
+      <c r="C20" s="127"/>
+      <c r="D20" s="143"/>
+    </row>
+    <row r="21" spans="1:4" ht="15.75">
+      <c r="A21" s="123" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="6" t="s">
+      <c r="B21" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="17"/>
-    </row>
-    <row r="22" spans="1:4" ht="45">
-      <c r="A22" s="4" t="s">
+      <c r="D21" s="143"/>
+    </row>
+    <row r="22" spans="1:4" ht="31.5">
+      <c r="A22" s="123" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="6" t="s">
+      <c r="B22" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="C22" s="27" t="s">
+      <c r="C22" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="D22" s="17" t="s">
+      <c r="D22" s="143" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:4" ht="15.75">
+      <c r="A23" s="123" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="6" t="s">
+      <c r="B23" s="139" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="17"/>
-    </row>
-    <row r="24" spans="1:4" ht="30">
-      <c r="A24" s="4" t="s">
+      <c r="D23" s="143"/>
+    </row>
+    <row r="24" spans="1:4" ht="31.5">
+      <c r="A24" s="123" t="s">
         <v>97</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="143" t="s">
         <v>199</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="C24" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="17" t="s">
+      <c r="D24" s="143" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="6"/>
-      <c r="B25" s="34" t="s">
+    <row r="25" spans="1:4" ht="15.75">
+      <c r="A25" s="139"/>
+      <c r="B25" s="145" t="s">
         <v>21</v>
       </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="17"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="4" t="s">
+      <c r="C25" s="123"/>
+      <c r="D25" s="143"/>
+    </row>
+    <row r="26" spans="1:4" ht="15.75">
+      <c r="A26" s="123" t="s">
         <v>98</v>
       </c>
-      <c r="B26" s="6" t="s">
+      <c r="B26" s="139" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="26" t="s">
+      <c r="C26" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D26" s="17"/>
-    </row>
-    <row r="27" spans="1:4" ht="30">
-      <c r="A27" s="4" t="s">
+      <c r="D26" s="143"/>
+    </row>
+    <row r="27" spans="1:4" ht="31.5">
+      <c r="A27" s="123" t="s">
         <v>99</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="143" t="s">
         <v>203</v>
       </c>
-      <c r="C27" s="27" t="s">
+      <c r="C27" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="D27" s="17" t="s">
+      <c r="D27" s="143" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="6"/>
-      <c r="B28" s="34" t="s">
+    <row r="28" spans="1:4" ht="15.75">
+      <c r="A28" s="139"/>
+      <c r="B28" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="4" t="s">
+      <c r="C28" s="123"/>
+      <c r="D28" s="143"/>
+    </row>
+    <row r="29" spans="1:4" ht="15.75">
+      <c r="A29" s="123" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="6" t="s">
+      <c r="B29" s="139" t="s">
         <v>24</v>
       </c>
-      <c r="C29" s="26" t="s">
+      <c r="C29" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:4" ht="30">
-      <c r="A30" s="4" t="s">
+      <c r="D29" s="143"/>
+    </row>
+    <row r="30" spans="1:4" ht="31.5">
+      <c r="A30" s="123" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="147" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="26" t="s">
+      <c r="C30" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="4" t="s">
+      <c r="D30" s="143"/>
+    </row>
+    <row r="31" spans="1:4" ht="15.75">
+      <c r="A31" s="123" t="s">
         <v>103</v>
       </c>
-      <c r="B31" s="6" t="s">
+      <c r="B31" s="139" t="s">
         <v>25</v>
       </c>
-      <c r="C31" s="26" t="s">
+      <c r="C31" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="D31" s="17"/>
+      <c r="D31" s="143"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="2"/>
-      <c r="C32" s="2"/>
+      <c r="A32" s="135"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="135"/>
+      <c r="D32" s="136"/>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2"/>
@@ -8952,199 +8898,199 @@
       <c r="B46" s="2"/>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="9"/>
-      <c r="B47" s="9"/>
-      <c r="C47" s="10"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="6"/>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
-      <c r="C48" s="10"/>
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="6"/>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="10"/>
-      <c r="B49" s="9"/>
-      <c r="C49" s="10"/>
+      <c r="A49" s="6"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="6"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="10"/>
-      <c r="B50" s="11"/>
-      <c r="C50" s="10"/>
+      <c r="A50" s="6"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="6"/>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="10"/>
-      <c r="B51" s="11"/>
-      <c r="C51" s="10"/>
+      <c r="A51" s="6"/>
+      <c r="B51" s="7"/>
+      <c r="C51" s="6"/>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="10"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="10"/>
+      <c r="A52" s="6"/>
+      <c r="B52" s="8"/>
+      <c r="C52" s="6"/>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="10"/>
-      <c r="B53" s="11"/>
-      <c r="C53" s="10"/>
+      <c r="A53" s="6"/>
+      <c r="B53" s="7"/>
+      <c r="C53" s="6"/>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="11"/>
-      <c r="C54" s="10"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="7"/>
+      <c r="C54" s="6"/>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="10"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="10"/>
+      <c r="A55" s="6"/>
+      <c r="B55" s="8"/>
+      <c r="C55" s="6"/>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="10"/>
-      <c r="B56" s="11"/>
-      <c r="C56" s="10"/>
+      <c r="A56" s="6"/>
+      <c r="B56" s="7"/>
+      <c r="C56" s="6"/>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="10"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="10"/>
+      <c r="A57" s="6"/>
+      <c r="B57" s="8"/>
+      <c r="C57" s="6"/>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="10"/>
-      <c r="B58" s="11"/>
-      <c r="C58" s="10"/>
+      <c r="A58" s="6"/>
+      <c r="B58" s="7"/>
+      <c r="C58" s="6"/>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="10"/>
-      <c r="B59" s="12"/>
-      <c r="C59" s="10"/>
+      <c r="A59" s="6"/>
+      <c r="B59" s="8"/>
+      <c r="C59" s="6"/>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="10"/>
-      <c r="B60" s="11"/>
-      <c r="C60" s="10"/>
+      <c r="A60" s="6"/>
+      <c r="B60" s="7"/>
+      <c r="C60" s="6"/>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="10"/>
-      <c r="B61" s="12"/>
-      <c r="C61" s="10"/>
+      <c r="A61" s="6"/>
+      <c r="B61" s="8"/>
+      <c r="C61" s="6"/>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="10"/>
-      <c r="B62" s="12"/>
-      <c r="C62" s="10"/>
+      <c r="A62" s="6"/>
+      <c r="B62" s="8"/>
+      <c r="C62" s="6"/>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="10"/>
-      <c r="B63" s="11"/>
-      <c r="C63" s="10"/>
+      <c r="A63" s="6"/>
+      <c r="B63" s="7"/>
+      <c r="C63" s="6"/>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="10"/>
-      <c r="B64" s="11"/>
-      <c r="C64" s="10"/>
+      <c r="A64" s="6"/>
+      <c r="B64" s="7"/>
+      <c r="C64" s="6"/>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="10"/>
-      <c r="B65" s="11"/>
-      <c r="C65" s="10"/>
+      <c r="A65" s="6"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="6"/>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="10"/>
-      <c r="B66" s="11"/>
-      <c r="C66" s="10"/>
+      <c r="A66" s="6"/>
+      <c r="B66" s="7"/>
+      <c r="C66" s="6"/>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="10"/>
-      <c r="B67" s="11"/>
-      <c r="C67" s="10"/>
+      <c r="A67" s="6"/>
+      <c r="B67" s="7"/>
+      <c r="C67" s="6"/>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="10"/>
-      <c r="B68" s="11"/>
-      <c r="C68" s="10"/>
+      <c r="A68" s="6"/>
+      <c r="B68" s="7"/>
+      <c r="C68" s="6"/>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="10"/>
-      <c r="B69" s="11"/>
-      <c r="C69" s="10"/>
+      <c r="A69" s="6"/>
+      <c r="B69" s="7"/>
+      <c r="C69" s="6"/>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="10"/>
-      <c r="B70" s="11"/>
-      <c r="C70" s="10"/>
+      <c r="A70" s="6"/>
+      <c r="B70" s="7"/>
+      <c r="C70" s="6"/>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="10"/>
-      <c r="B71" s="9"/>
-      <c r="C71" s="10"/>
+      <c r="A71" s="6"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="10"/>
-      <c r="B72" s="9"/>
-      <c r="C72" s="10"/>
+      <c r="A72" s="6"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="10"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="10"/>
+      <c r="A73" s="6"/>
+      <c r="B73" s="6"/>
+      <c r="C73" s="6"/>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="10"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="10"/>
+      <c r="A74" s="6"/>
+      <c r="B74" s="6"/>
+      <c r="C74" s="6"/>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="10"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="10"/>
+      <c r="A75" s="6"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="10"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="10"/>
+      <c r="A76" s="6"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="10"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="10"/>
+      <c r="A77" s="6"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="10"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
+      <c r="A78" s="6"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="10"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
+      <c r="A79" s="6"/>
+      <c r="B79" s="6"/>
+      <c r="C79" s="6"/>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="10"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="10"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="10"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="6"/>
+      <c r="C81" s="6"/>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="10"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="6"/>
+      <c r="C82" s="6"/>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="10"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="6"/>
+      <c r="C83" s="6"/>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="10"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="6"/>
+      <c r="C84" s="6"/>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="10"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="6"/>
+      <c r="C85" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9156,9 +9102,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:C5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9174,614 +9120,619 @@
     <col min="10" max="10" width="54.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A1" s="60" t="s">
+    <row r="1" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A1" s="210" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="210" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="210" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="60" t="s">
+      <c r="D1" s="210" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="60" t="s">
+      <c r="E1" s="210" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="60" t="s">
+      <c r="F1" s="210" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="210" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="60" t="s">
+      <c r="I1" s="210" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="60" t="s">
+      <c r="J1" s="210" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="120.75" thickBot="1">
-      <c r="A2" s="74" t="s">
+    <row r="2" spans="1:10" ht="126.75" thickBot="1">
+      <c r="A2" s="211" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="75" t="s">
+      <c r="B2" s="212" t="s">
         <v>201</v>
       </c>
-      <c r="C2" s="76" t="s">
+      <c r="C2" s="213" t="s">
         <v>193</v>
       </c>
-      <c r="D2" s="75" t="s">
+      <c r="D2" s="212" t="s">
         <v>195</v>
       </c>
-      <c r="E2" s="75" t="s">
+      <c r="E2" s="212" t="s">
         <v>196</v>
       </c>
-      <c r="F2" s="75" t="s">
+      <c r="F2" s="212" t="s">
         <v>200</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="214" t="s">
         <v>192</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="212" t="s">
         <v>197</v>
       </c>
-      <c r="I2" s="75" t="s">
+      <c r="I2" s="212" t="s">
         <v>197</v>
       </c>
-      <c r="J2" s="78" t="s">
+      <c r="J2" s="215" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="114.75" customHeight="1">
-      <c r="A3" s="140" t="s">
+      <c r="A3" s="216" t="s">
         <v>187</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="217" t="s">
         <v>204</v>
       </c>
-      <c r="C3" s="145" t="s">
+      <c r="C3" s="218" t="s">
         <v>304</v>
       </c>
-      <c r="D3" s="72" t="s">
+      <c r="D3" s="219" t="s">
         <v>205</v>
       </c>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="219" t="s">
         <v>210</v>
       </c>
-      <c r="F3" s="72" t="s">
+      <c r="F3" s="219" t="s">
         <v>211</v>
       </c>
-      <c r="G3" s="148" t="s">
+      <c r="G3" s="220" t="s">
         <v>202</v>
       </c>
-      <c r="H3" s="129" t="s">
+      <c r="H3" s="217" t="s">
         <v>197</v>
       </c>
-      <c r="I3" s="129" t="s">
+      <c r="I3" s="217" t="s">
         <v>197</v>
       </c>
-      <c r="J3" s="151" t="s">
+      <c r="J3" s="221" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="52.5" customHeight="1">
-      <c r="A4" s="141"/>
-      <c r="B4" s="130"/>
-      <c r="C4" s="146"/>
-      <c r="D4" s="53" t="s">
+      <c r="A4" s="222"/>
+      <c r="B4" s="223"/>
+      <c r="C4" s="224"/>
+      <c r="D4" s="225" t="s">
         <v>206</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="225" t="s">
         <v>207</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="225" t="s">
         <v>207</v>
       </c>
-      <c r="G4" s="149"/>
-      <c r="H4" s="130"/>
-      <c r="I4" s="130"/>
-      <c r="J4" s="152"/>
+      <c r="G4" s="226"/>
+      <c r="H4" s="223"/>
+      <c r="I4" s="223"/>
+      <c r="J4" s="227"/>
     </row>
     <row r="5" spans="1:10" ht="54" customHeight="1" thickBot="1">
-      <c r="A5" s="142"/>
-      <c r="B5" s="131"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="71" t="s">
+      <c r="A5" s="228"/>
+      <c r="B5" s="229"/>
+      <c r="C5" s="230"/>
+      <c r="D5" s="231" t="s">
         <v>208</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="232" t="s">
         <v>209</v>
       </c>
-      <c r="F5" s="71" t="s">
+      <c r="F5" s="231" t="s">
         <v>207</v>
       </c>
-      <c r="G5" s="150"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="153"/>
+      <c r="G5" s="233"/>
+      <c r="H5" s="229"/>
+      <c r="I5" s="229"/>
+      <c r="J5" s="234"/>
     </row>
     <row r="6" spans="1:10" ht="39.75" customHeight="1">
-      <c r="A6" s="140" t="s">
+      <c r="A6" s="216" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="217" t="s">
         <v>230</v>
       </c>
-      <c r="C6" s="129" t="s">
+      <c r="C6" s="217" t="s">
         <v>229</v>
       </c>
-      <c r="D6" s="61" t="s">
+      <c r="D6" s="235" t="s">
         <v>194</v>
       </c>
-      <c r="E6" s="143"/>
-      <c r="F6" s="143"/>
-      <c r="G6" s="143"/>
-      <c r="H6" s="129" t="s">
+      <c r="E6" s="236"/>
+      <c r="F6" s="236"/>
+      <c r="G6" s="236"/>
+      <c r="H6" s="217" t="s">
         <v>186</v>
       </c>
-      <c r="I6" s="129" t="s">
+      <c r="I6" s="217" t="s">
         <v>186</v>
       </c>
-      <c r="J6" s="132" t="s">
+      <c r="J6" s="237" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="141"/>
-      <c r="B7" s="130"/>
-      <c r="C7" s="130"/>
-      <c r="D7" s="54" t="s">
+    <row r="7" spans="1:10" ht="15.75">
+      <c r="A7" s="222"/>
+      <c r="B7" s="223"/>
+      <c r="C7" s="223"/>
+      <c r="D7" s="238" t="s">
         <v>216</v>
       </c>
-      <c r="E7" s="144"/>
-      <c r="F7" s="144"/>
-      <c r="G7" s="144"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="133"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="141"/>
-      <c r="B8" s="130"/>
-      <c r="C8" s="130"/>
-      <c r="D8" s="54" t="s">
+      <c r="E7" s="239"/>
+      <c r="F7" s="239"/>
+      <c r="G7" s="239"/>
+      <c r="H7" s="223"/>
+      <c r="I7" s="223"/>
+      <c r="J7" s="240"/>
+    </row>
+    <row r="8" spans="1:10" ht="15.75">
+      <c r="A8" s="222"/>
+      <c r="B8" s="223"/>
+      <c r="C8" s="223"/>
+      <c r="D8" s="238" t="s">
         <v>217</v>
       </c>
-      <c r="E8" s="144"/>
-      <c r="F8" s="144"/>
-      <c r="G8" s="144"/>
-      <c r="H8" s="130"/>
-      <c r="I8" s="130"/>
-      <c r="J8" s="133"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="141"/>
-      <c r="B9" s="130"/>
-      <c r="C9" s="130"/>
-      <c r="D9" s="54" t="s">
+      <c r="E8" s="239"/>
+      <c r="F8" s="239"/>
+      <c r="G8" s="239"/>
+      <c r="H8" s="223"/>
+      <c r="I8" s="223"/>
+      <c r="J8" s="240"/>
+    </row>
+    <row r="9" spans="1:10" ht="15.75">
+      <c r="A9" s="222"/>
+      <c r="B9" s="223"/>
+      <c r="C9" s="223"/>
+      <c r="D9" s="238" t="s">
         <v>218</v>
       </c>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="133"/>
-    </row>
-    <row r="10" spans="1:10" ht="45">
-      <c r="A10" s="141"/>
-      <c r="B10" s="130"/>
-      <c r="C10" s="130"/>
-      <c r="D10" s="54" t="s">
+      <c r="E9" s="239"/>
+      <c r="F9" s="239"/>
+      <c r="G9" s="239"/>
+      <c r="H9" s="223"/>
+      <c r="I9" s="223"/>
+      <c r="J9" s="240"/>
+    </row>
+    <row r="10" spans="1:10" ht="47.25">
+      <c r="A10" s="222"/>
+      <c r="B10" s="223"/>
+      <c r="C10" s="223"/>
+      <c r="D10" s="238" t="s">
         <v>219</v>
       </c>
-      <c r="E10" s="144"/>
-      <c r="F10" s="144"/>
-      <c r="G10" s="144"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="133"/>
-    </row>
-    <row r="11" spans="1:10" ht="60">
-      <c r="A11" s="141"/>
-      <c r="B11" s="130"/>
-      <c r="C11" s="130"/>
-      <c r="D11" s="54" t="s">
+      <c r="E10" s="239"/>
+      <c r="F10" s="239"/>
+      <c r="G10" s="239"/>
+      <c r="H10" s="223"/>
+      <c r="I10" s="223"/>
+      <c r="J10" s="240"/>
+    </row>
+    <row r="11" spans="1:10" ht="63">
+      <c r="A11" s="222"/>
+      <c r="B11" s="223"/>
+      <c r="C11" s="223"/>
+      <c r="D11" s="238" t="s">
         <v>220</v>
       </c>
-      <c r="E11" s="55" t="s">
+      <c r="E11" s="241" t="s">
         <v>224</v>
       </c>
-      <c r="F11" s="17" t="s">
+      <c r="F11" s="131" t="s">
         <v>225</v>
       </c>
-      <c r="G11" s="17" t="s">
+      <c r="G11" s="131" t="s">
         <v>214</v>
       </c>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="133"/>
-    </row>
-    <row r="12" spans="1:10" ht="75.75" thickBot="1">
-      <c r="A12" s="142"/>
-      <c r="B12" s="131"/>
-      <c r="C12" s="131"/>
-      <c r="D12" s="59" t="s">
+      <c r="H11" s="223"/>
+      <c r="I11" s="223"/>
+      <c r="J11" s="240"/>
+    </row>
+    <row r="12" spans="1:10" ht="79.5" thickBot="1">
+      <c r="A12" s="228"/>
+      <c r="B12" s="229"/>
+      <c r="C12" s="229"/>
+      <c r="D12" s="242" t="s">
         <v>221</v>
       </c>
-      <c r="E12" s="70" t="s">
+      <c r="E12" s="243" t="s">
         <v>223</v>
       </c>
-      <c r="F12" s="71" t="s">
+      <c r="F12" s="231" t="s">
         <v>222</v>
       </c>
-      <c r="G12" s="68" t="s">
+      <c r="G12" s="244" t="s">
         <v>215</v>
       </c>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="134"/>
+      <c r="H12" s="229"/>
+      <c r="I12" s="229"/>
+      <c r="J12" s="245"/>
     </row>
     <row r="13" spans="1:10" ht="31.5" customHeight="1">
-      <c r="A13" s="140" t="s">
+      <c r="A13" s="216" t="s">
         <v>227</v>
       </c>
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="217" t="s">
         <v>228</v>
       </c>
-      <c r="C13" s="129" t="s">
+      <c r="C13" s="217" t="s">
         <v>231</v>
       </c>
-      <c r="D13" s="61" t="s">
+      <c r="D13" s="235" t="s">
         <v>194</v>
       </c>
-      <c r="E13" s="62"/>
-      <c r="F13" s="137" t="s">
+      <c r="E13" s="246"/>
+      <c r="F13" s="247" t="s">
         <v>250</v>
       </c>
-      <c r="G13" s="63" t="s">
+      <c r="G13" s="248" t="s">
         <v>232</v>
       </c>
-      <c r="H13" s="62"/>
-      <c r="I13" s="62"/>
-      <c r="J13" s="64"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="141"/>
-      <c r="B14" s="130"/>
-      <c r="C14" s="130"/>
-      <c r="D14" s="54" t="s">
+      <c r="H13" s="246"/>
+      <c r="I13" s="246"/>
+      <c r="J13" s="249"/>
+    </row>
+    <row r="14" spans="1:10" ht="15.75">
+      <c r="A14" s="222"/>
+      <c r="B14" s="223"/>
+      <c r="C14" s="223"/>
+      <c r="D14" s="238" t="s">
         <v>216</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="138"/>
-      <c r="G14" s="57" t="s">
+      <c r="E14" s="125"/>
+      <c r="F14" s="250"/>
+      <c r="G14" s="251" t="s">
         <v>233</v>
       </c>
-      <c r="H14" s="135" t="s">
+      <c r="H14" s="252" t="s">
         <v>186</v>
       </c>
-      <c r="I14" s="135" t="s">
+      <c r="I14" s="252" t="s">
         <v>186</v>
       </c>
-      <c r="J14" s="65"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="141"/>
-      <c r="B15" s="130"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="54" t="s">
+      <c r="J14" s="253"/>
+    </row>
+    <row r="15" spans="1:10" ht="15.75">
+      <c r="A15" s="222"/>
+      <c r="B15" s="223"/>
+      <c r="C15" s="223"/>
+      <c r="D15" s="238" t="s">
         <v>217</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="138"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="135"/>
-      <c r="I15" s="135"/>
-      <c r="J15" s="65"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="141"/>
-      <c r="B16" s="130"/>
-      <c r="C16" s="130"/>
-      <c r="D16" s="54" t="s">
+      <c r="E15" s="125"/>
+      <c r="F15" s="250"/>
+      <c r="G15" s="125"/>
+      <c r="H15" s="252"/>
+      <c r="I15" s="252"/>
+      <c r="J15" s="253"/>
+    </row>
+    <row r="16" spans="1:10" ht="15.75">
+      <c r="A16" s="222"/>
+      <c r="B16" s="223"/>
+      <c r="C16" s="223"/>
+      <c r="D16" s="238" t="s">
         <v>218</v>
       </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="138"/>
-      <c r="G16" s="57" t="s">
+      <c r="E16" s="125"/>
+      <c r="F16" s="250"/>
+      <c r="G16" s="251" t="s">
         <v>234</v>
       </c>
-      <c r="H16" s="135"/>
-      <c r="I16" s="135"/>
-      <c r="J16" s="65"/>
-    </row>
-    <row r="17" spans="1:10" ht="30">
-      <c r="A17" s="141"/>
-      <c r="B17" s="130"/>
-      <c r="C17" s="130"/>
-      <c r="D17" s="54" t="s">
+      <c r="H16" s="252"/>
+      <c r="I16" s="252"/>
+      <c r="J16" s="253"/>
+    </row>
+    <row r="17" spans="1:10" ht="31.5">
+      <c r="A17" s="222"/>
+      <c r="B17" s="223"/>
+      <c r="C17" s="223"/>
+      <c r="D17" s="238" t="s">
         <v>235</v>
       </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="138"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="135"/>
-      <c r="I17" s="135"/>
-      <c r="J17" s="65"/>
-    </row>
-    <row r="18" spans="1:10" ht="45">
-      <c r="A18" s="141"/>
-      <c r="B18" s="130"/>
-      <c r="C18" s="130"/>
-      <c r="D18" s="54" t="s">
+      <c r="E17" s="139"/>
+      <c r="F17" s="250"/>
+      <c r="G17" s="125"/>
+      <c r="H17" s="252"/>
+      <c r="I17" s="252"/>
+      <c r="J17" s="253"/>
+    </row>
+    <row r="18" spans="1:10" ht="47.25">
+      <c r="A18" s="222"/>
+      <c r="B18" s="223"/>
+      <c r="C18" s="223"/>
+      <c r="D18" s="238" t="s">
         <v>236</v>
       </c>
-      <c r="E18" s="56"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="57" t="s">
+      <c r="E18" s="139"/>
+      <c r="F18" s="250"/>
+      <c r="G18" s="251" t="s">
         <v>237</v>
       </c>
-      <c r="H18" s="135"/>
-      <c r="I18" s="135"/>
-      <c r="J18" s="65"/>
-    </row>
-    <row r="19" spans="1:10" ht="30">
-      <c r="A19" s="141"/>
-      <c r="B19" s="130"/>
-      <c r="C19" s="130"/>
-      <c r="D19" s="54" t="s">
+      <c r="H18" s="252"/>
+      <c r="I18" s="252"/>
+      <c r="J18" s="253"/>
+    </row>
+    <row r="19" spans="1:10" ht="31.5">
+      <c r="A19" s="222"/>
+      <c r="B19" s="223"/>
+      <c r="C19" s="223"/>
+      <c r="D19" s="238" t="s">
         <v>221</v>
       </c>
-      <c r="E19" s="19" t="s">
+      <c r="E19" s="143" t="s">
         <v>242</v>
       </c>
-      <c r="F19" s="138"/>
-      <c r="G19" s="57" t="s">
+      <c r="F19" s="250"/>
+      <c r="G19" s="251" t="s">
         <v>238</v>
       </c>
-      <c r="H19" s="135"/>
-      <c r="I19" s="135"/>
-      <c r="J19" s="65"/>
-    </row>
-    <row r="20" spans="1:10" ht="30">
-      <c r="A20" s="141"/>
-      <c r="B20" s="130"/>
-      <c r="C20" s="130"/>
-      <c r="D20" s="54" t="s">
+      <c r="H19" s="252"/>
+      <c r="I19" s="252"/>
+      <c r="J19" s="253"/>
+    </row>
+    <row r="20" spans="1:10" ht="31.5">
+      <c r="A20" s="222"/>
+      <c r="B20" s="223"/>
+      <c r="C20" s="223"/>
+      <c r="D20" s="238" t="s">
         <v>243</v>
       </c>
-      <c r="E20" s="19" t="s">
+      <c r="E20" s="143" t="s">
         <v>244</v>
       </c>
-      <c r="F20" s="138"/>
-      <c r="G20" s="57" t="s">
+      <c r="F20" s="250"/>
+      <c r="G20" s="251" t="s">
         <v>239</v>
       </c>
-      <c r="H20" s="135"/>
-      <c r="I20" s="135"/>
-      <c r="J20" s="65"/>
-    </row>
-    <row r="21" spans="1:10" ht="30">
-      <c r="A21" s="141"/>
-      <c r="B21" s="130"/>
-      <c r="C21" s="130"/>
-      <c r="D21" s="54" t="s">
+      <c r="H20" s="252"/>
+      <c r="I20" s="252"/>
+      <c r="J20" s="253"/>
+    </row>
+    <row r="21" spans="1:10" ht="31.5">
+      <c r="A21" s="222"/>
+      <c r="B21" s="223"/>
+      <c r="C21" s="223"/>
+      <c r="D21" s="238" t="s">
         <v>245</v>
       </c>
-      <c r="E21" s="19" t="s">
+      <c r="E21" s="143" t="s">
         <v>246</v>
       </c>
-      <c r="F21" s="138"/>
-      <c r="G21" s="57" t="s">
+      <c r="F21" s="250"/>
+      <c r="G21" s="251" t="s">
         <v>240</v>
       </c>
-      <c r="H21" s="135"/>
-      <c r="I21" s="135"/>
-      <c r="J21" s="65"/>
+      <c r="H21" s="252"/>
+      <c r="I21" s="252"/>
+      <c r="J21" s="253"/>
     </row>
     <row r="22" spans="1:10" ht="95.25" customHeight="1">
-      <c r="A22" s="141"/>
-      <c r="B22" s="130"/>
-      <c r="C22" s="130"/>
-      <c r="D22" s="54" t="s">
+      <c r="A22" s="222"/>
+      <c r="B22" s="223"/>
+      <c r="C22" s="223"/>
+      <c r="D22" s="238" t="s">
         <v>247</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="143" t="s">
         <v>248</v>
       </c>
-      <c r="F22" s="139"/>
-      <c r="G22" s="57" t="s">
+      <c r="F22" s="254"/>
+      <c r="G22" s="251" t="s">
         <v>241</v>
       </c>
-      <c r="H22" s="135"/>
-      <c r="I22" s="135"/>
-      <c r="J22" s="66" t="s">
+      <c r="H22" s="252"/>
+      <c r="I22" s="252"/>
+      <c r="J22" s="255" t="s">
         <v>252</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="60.75" thickBot="1">
-      <c r="A23" s="142"/>
-      <c r="B23" s="131"/>
-      <c r="C23" s="131"/>
-      <c r="D23" s="59" t="s">
+    <row r="23" spans="1:10" ht="63.75" thickBot="1">
+      <c r="A23" s="228"/>
+      <c r="B23" s="229"/>
+      <c r="C23" s="229"/>
+      <c r="D23" s="242" t="s">
         <v>249</v>
       </c>
-      <c r="E23" s="67" t="s">
+      <c r="E23" s="256" t="s">
         <v>254</v>
       </c>
-      <c r="F23" s="68" t="s">
+      <c r="F23" s="244" t="s">
         <v>255</v>
       </c>
-      <c r="G23" s="68" t="s">
+      <c r="G23" s="244" t="s">
         <v>253</v>
       </c>
-      <c r="H23" s="136"/>
-      <c r="I23" s="136"/>
-      <c r="J23" s="69" t="s">
+      <c r="H23" s="257"/>
+      <c r="I23" s="257"/>
+      <c r="J23" s="258" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="105" customHeight="1">
-      <c r="A24" s="140" t="s">
+      <c r="A24" s="216" t="s">
         <v>257</v>
       </c>
-      <c r="B24" s="129" t="s">
+      <c r="B24" s="217" t="s">
         <v>258</v>
       </c>
-      <c r="C24" s="129" t="s">
+      <c r="C24" s="217" t="s">
         <v>259</v>
       </c>
-      <c r="D24" s="58" t="s">
+      <c r="D24" s="259" t="s">
         <v>262</v>
       </c>
-      <c r="E24" s="129" t="s">
+      <c r="E24" s="217" t="s">
         <v>265</v>
       </c>
-      <c r="F24" s="129" t="s">
+      <c r="F24" s="217" t="s">
         <v>266</v>
       </c>
-      <c r="G24" s="129" t="s">
+      <c r="G24" s="217" t="s">
         <v>260</v>
       </c>
-      <c r="H24" s="129" t="s">
+      <c r="H24" s="217" t="s">
         <v>261</v>
       </c>
-      <c r="I24" s="129" t="s">
+      <c r="I24" s="217" t="s">
         <v>261</v>
       </c>
-      <c r="J24" s="132"/>
-    </row>
-    <row r="25" spans="1:10" ht="30">
-      <c r="A25" s="141"/>
-      <c r="B25" s="130"/>
-      <c r="C25" s="130"/>
-      <c r="D25" s="54" t="s">
+      <c r="J24" s="237"/>
+    </row>
+    <row r="25" spans="1:10" ht="31.5">
+      <c r="A25" s="222"/>
+      <c r="B25" s="223"/>
+      <c r="C25" s="223"/>
+      <c r="D25" s="238" t="s">
         <v>263</v>
       </c>
-      <c r="E25" s="130"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="133"/>
-    </row>
-    <row r="26" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A26" s="142"/>
-      <c r="B26" s="131"/>
-      <c r="C26" s="131"/>
-      <c r="D26" s="59" t="s">
+      <c r="E25" s="223"/>
+      <c r="F25" s="223"/>
+      <c r="G25" s="223"/>
+      <c r="H25" s="223"/>
+      <c r="I25" s="223"/>
+      <c r="J25" s="240"/>
+    </row>
+    <row r="26" spans="1:10" ht="16.5" thickBot="1">
+      <c r="A26" s="228"/>
+      <c r="B26" s="229"/>
+      <c r="C26" s="229"/>
+      <c r="D26" s="242" t="s">
         <v>264</v>
       </c>
-      <c r="E26" s="131"/>
-      <c r="F26" s="131"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="131"/>
-      <c r="I26" s="131"/>
-      <c r="J26" s="134"/>
+      <c r="E26" s="229"/>
+      <c r="F26" s="229"/>
+      <c r="G26" s="229"/>
+      <c r="H26" s="229"/>
+      <c r="I26" s="229"/>
+      <c r="J26" s="245"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="10"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="10"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="A29" s="6"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+      <c r="A30" s="6"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="6"/>
     </row>
     <row r="31" spans="1:10" ht="26.25">
-      <c r="A31" s="10"/>
-      <c r="B31" s="81"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="6"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="10"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="80"/>
-      <c r="H33" s="79"/>
-      <c r="I33" s="79"/>
-      <c r="J33" s="10"/>
+      <c r="A33" s="6"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="6"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="10"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+      <c r="A34" s="6"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="6"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="10"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
+      <c r="A35" s="6"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="C3:C5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="J3:J5"/>
-    <mergeCell ref="H3:H5"/>
-    <mergeCell ref="I3:I5"/>
+    <mergeCell ref="I24:I26"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="H14:H23"/>
+    <mergeCell ref="I14:I23"/>
+    <mergeCell ref="F13:F22"/>
+    <mergeCell ref="G24:G26"/>
+    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="C24:C26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="E24:E26"/>
+    <mergeCell ref="F24:F26"/>
     <mergeCell ref="A13:A23"/>
     <mergeCell ref="B13:B23"/>
     <mergeCell ref="C13:C23"/>
@@ -9794,18 +9745,13 @@
     <mergeCell ref="B6:B12"/>
     <mergeCell ref="C6:C12"/>
     <mergeCell ref="H6:H12"/>
-    <mergeCell ref="C24:C26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="E24:E26"/>
-    <mergeCell ref="F24:F26"/>
-    <mergeCell ref="I24:I26"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="H14:H23"/>
-    <mergeCell ref="I14:I23"/>
-    <mergeCell ref="F13:F22"/>
-    <mergeCell ref="G24:G26"/>
-    <mergeCell ref="H24:H26"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="J3:J5"/>
+    <mergeCell ref="H3:H5"/>
+    <mergeCell ref="I3:I5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G2" r:id="rId1"/>
@@ -9828,7 +9774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3:A7"/>
     </sheetView>
@@ -9843,960 +9789,931 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="205" t="s">
+      <c r="A1" s="52" t="s">
+        <v>330</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="52" t="s">
         <v>331</v>
       </c>
-      <c r="B1" s="205" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="205" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="205" t="s">
+      <c r="E1" s="52" t="s">
         <v>332</v>
       </c>
-      <c r="E1" s="205" t="s">
+    </row>
+    <row r="2" spans="1:5" ht="19.5" thickBot="1">
+      <c r="A2" s="104" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" thickBot="1">
-      <c r="A2" s="179" t="s">
+      <c r="B2" s="104"/>
+      <c r="C2" s="105"/>
+      <c r="D2" s="105"/>
+      <c r="E2" s="105"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="76" t="s">
         <v>334</v>
       </c>
-      <c r="B2" s="179"/>
-      <c r="C2" s="180"/>
-      <c r="D2" s="180"/>
-      <c r="E2" s="180"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="206" t="s">
+      <c r="B3" s="53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" s="47" t="s">
         <v>335</v>
       </c>
-      <c r="B3" s="207" t="s">
-        <v>35</v>
-      </c>
-      <c r="C3" s="208" t="s">
+      <c r="E3" s="106" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="77"/>
+      <c r="B4" s="108" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="41" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="E4" s="107"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="77"/>
+      <c r="B5" s="102"/>
+      <c r="C5" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5" s="107"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="77"/>
+      <c r="B6" s="108" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>341</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>338</v>
+      </c>
+      <c r="E6" s="107"/>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A7" s="77"/>
+      <c r="B7" s="103"/>
+      <c r="C7" s="55" t="s">
+        <v>342</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="E7" s="107"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="76" t="s">
+        <v>343</v>
+      </c>
+      <c r="B8" s="98" t="s">
+        <v>344</v>
+      </c>
+      <c r="C8" s="39" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>346</v>
+      </c>
+      <c r="E8" s="109" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75">
+      <c r="A9" s="77"/>
+      <c r="B9" s="84"/>
+      <c r="C9" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="D9" s="36" t="s">
+        <v>340</v>
+      </c>
+      <c r="E9" s="110"/>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="77"/>
+      <c r="B10" s="82" t="s">
+        <v>347</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="E10" s="110"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="77"/>
+      <c r="B11" s="84"/>
+      <c r="C11" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="D11" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E11" s="110"/>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="77"/>
+      <c r="B12" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="C12" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="E12" s="110"/>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="77"/>
+      <c r="B13" s="84"/>
+      <c r="C13" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E13" s="110"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="77"/>
+      <c r="B14" s="82" t="s">
+        <v>133</v>
+      </c>
+      <c r="C14" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>351</v>
+      </c>
+      <c r="E14" s="110"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="77"/>
+      <c r="B15" s="84"/>
+      <c r="C15" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="D15" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E15" s="110"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="77"/>
+      <c r="B16" s="82" t="s">
+        <v>352</v>
+      </c>
+      <c r="C16" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>353</v>
+      </c>
+      <c r="E16" s="110"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="77"/>
+      <c r="B17" s="84"/>
+      <c r="C17" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="D17" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E17" s="110"/>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="77"/>
+      <c r="B18" s="101" t="s">
+        <v>354</v>
+      </c>
+      <c r="C18" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>355</v>
+      </c>
+      <c r="E18" s="110"/>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="77"/>
+      <c r="B19" s="102"/>
+      <c r="C19" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E19" s="110"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="77"/>
+      <c r="B20" s="101" t="s">
+        <v>356</v>
+      </c>
+      <c r="C20" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>357</v>
+      </c>
+      <c r="E20" s="110"/>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="77"/>
+      <c r="B21" s="102"/>
+      <c r="C21" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E21" s="110"/>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="77"/>
+      <c r="B22" s="101" t="s">
+        <v>358</v>
+      </c>
+      <c r="C22" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="E22" s="110"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="77"/>
+      <c r="B23" s="102"/>
+      <c r="C23" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="D23" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E23" s="110"/>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="77"/>
+      <c r="B24" s="101" t="s">
+        <v>360</v>
+      </c>
+      <c r="C24" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>361</v>
+      </c>
+      <c r="E24" s="110"/>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="77"/>
+      <c r="B25" s="103"/>
+      <c r="C25" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="D25" s="38" t="s">
+        <v>340</v>
+      </c>
+      <c r="E25" s="110"/>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="77"/>
+      <c r="B26" s="82" t="s">
+        <v>362</v>
+      </c>
+      <c r="C26" s="41" t="s">
+        <v>345</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>363</v>
+      </c>
+      <c r="E26" s="110"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A27" s="77"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="D27" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E27" s="110"/>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="76" t="s">
+        <v>364</v>
+      </c>
+      <c r="B28" s="98" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="D28" s="35" t="s">
+        <v>366</v>
+      </c>
+      <c r="E28" s="87" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="77"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="D29" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E29" s="88"/>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="77"/>
+      <c r="B30" s="82" t="s">
+        <v>367</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="E30" s="88"/>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="77"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="D31" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E31" s="88"/>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="77"/>
+      <c r="B32" s="82" t="s">
+        <v>369</v>
+      </c>
+      <c r="C32" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="E32" s="88"/>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A33" s="77"/>
+      <c r="B33" s="83"/>
+      <c r="C33" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="D33" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="E33" s="88"/>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="77"/>
+      <c r="B34" s="76" t="s">
+        <v>362</v>
+      </c>
+      <c r="C34" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>363</v>
+      </c>
+      <c r="E34" s="72" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="77"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="40" t="s">
+        <v>339</v>
+      </c>
+      <c r="D35" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E35" s="73"/>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="77"/>
+      <c r="B36" s="100" t="s">
+        <v>371</v>
+      </c>
+      <c r="C36" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="D36" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="E36" s="73"/>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="77"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="D37" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E37" s="73"/>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="77"/>
+      <c r="B38" s="100" t="s">
+        <v>373</v>
+      </c>
+      <c r="C38" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="E38" s="73"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A39" s="77"/>
+      <c r="B39" s="78"/>
+      <c r="C39" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="D39" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="E39" s="99"/>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="77"/>
+      <c r="B40" s="76" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="39" t="s">
+        <v>365</v>
+      </c>
+      <c r="D40" s="35" t="s">
+        <v>374</v>
+      </c>
+      <c r="E40" s="87" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="77"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="D41" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E41" s="88"/>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="77"/>
+      <c r="B42" s="90" t="s">
+        <v>376</v>
+      </c>
+      <c r="C42" s="41" t="s">
+        <v>365</v>
+      </c>
+      <c r="D42" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="E42" s="88"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A43" s="77"/>
+      <c r="B43" s="91"/>
+      <c r="C43" s="56" t="s">
+        <v>342</v>
+      </c>
+      <c r="D43" s="57" t="s">
+        <v>340</v>
+      </c>
+      <c r="E43" s="89"/>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="76" t="s">
+        <v>377</v>
+      </c>
+      <c r="B44" s="92" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="35" t="s">
+        <v>378</v>
+      </c>
+      <c r="E44" s="94" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="77"/>
+      <c r="B45" s="93"/>
+      <c r="C45" s="40" t="s">
+        <v>342</v>
+      </c>
+      <c r="D45" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E45" s="95"/>
+    </row>
+    <row r="46" spans="1:5" ht="30">
+      <c r="A46" s="77"/>
+      <c r="B46" s="96" t="s">
+        <v>379</v>
+      </c>
+      <c r="C46" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="D46" s="33" t="s">
+        <v>380</v>
+      </c>
+      <c r="E46" s="95"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A47" s="77"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="55" t="s">
+        <v>339</v>
+      </c>
+      <c r="D47" s="34" t="s">
+        <v>340</v>
+      </c>
+      <c r="E47" s="95"/>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="70" t="s">
+        <v>381</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>382</v>
+      </c>
+      <c r="C48" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="199" t="s">
+      <c r="D48" s="58" t="s">
+        <v>383</v>
+      </c>
+      <c r="E48" s="72" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="71"/>
+      <c r="B49" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="C49" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D49" s="44" t="s">
+        <v>386</v>
+      </c>
+      <c r="E49" s="73"/>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="71"/>
+      <c r="B50" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="C50" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D50" s="44" t="s">
+        <v>387</v>
+      </c>
+      <c r="E50" s="73"/>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="71"/>
+      <c r="B51" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="C51" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D51" s="59" t="s">
+        <v>388</v>
+      </c>
+      <c r="E51" s="73"/>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="71"/>
+      <c r="B52" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D52" s="59" t="s">
+        <v>389</v>
+      </c>
+      <c r="E52" s="73"/>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="71"/>
+      <c r="B53" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D53" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="E53" s="73"/>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="71"/>
+      <c r="B54" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="C54" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D54" s="59" t="s">
+        <v>392</v>
+      </c>
+      <c r="E54" s="73"/>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="71"/>
+      <c r="B55" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="C55" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D55" s="59" t="s">
+        <v>394</v>
+      </c>
+      <c r="E55" s="73"/>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="71"/>
+      <c r="B56" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="C56" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D56" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="E56" s="73"/>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="71"/>
+      <c r="B57" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="C57" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D57" s="44" t="s">
+        <v>398</v>
+      </c>
+      <c r="E57" s="73"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="71"/>
+      <c r="B58" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D58" s="44" t="s">
+        <v>400</v>
+      </c>
+      <c r="E58" s="73"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="71"/>
+      <c r="B59" s="12" t="s">
+        <v>401</v>
+      </c>
+      <c r="C59" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D59" s="44" t="s">
+        <v>402</v>
+      </c>
+      <c r="E59" s="73"/>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="71"/>
+      <c r="B60" s="12" t="s">
+        <v>403</v>
+      </c>
+      <c r="C60" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D60" s="44" t="s">
+        <v>404</v>
+      </c>
+      <c r="E60" s="73"/>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="71"/>
+      <c r="B61" s="12" t="s">
+        <v>405</v>
+      </c>
+      <c r="C61" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D61" s="74" t="s">
+        <v>406</v>
+      </c>
+      <c r="E61" s="73"/>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="71"/>
+      <c r="B62" s="12" t="s">
+        <v>407</v>
+      </c>
+      <c r="C62" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D62" s="75"/>
+      <c r="E62" s="73"/>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="71"/>
+      <c r="B63" s="12" t="s">
+        <v>408</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="E63" s="73"/>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="71"/>
+      <c r="B64" s="12" t="s">
+        <v>410</v>
+      </c>
+      <c r="C64" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="E64" s="73"/>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="71"/>
+      <c r="B65" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="C65" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D65" s="44" t="s">
+        <v>413</v>
+      </c>
+      <c r="E65" s="73"/>
+    </row>
+    <row r="66" spans="1:5" ht="26.25">
+      <c r="A66" s="71"/>
+      <c r="B66" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="C66" s="43" t="s">
+        <v>385</v>
+      </c>
+      <c r="D66" s="44" t="s">
+        <v>415</v>
+      </c>
+      <c r="E66" s="73"/>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" thickBot="1">
+      <c r="A67" s="71"/>
+      <c r="B67" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="D67" s="45" t="s">
+        <v>417</v>
+      </c>
+      <c r="E67" s="73"/>
+    </row>
+    <row r="68" spans="1:5" ht="26.25">
+      <c r="A68" s="76" t="s">
+        <v>418</v>
+      </c>
+      <c r="B68" s="60" t="s">
+        <v>419</v>
+      </c>
+      <c r="C68" s="46" t="s">
+        <v>420</v>
+      </c>
+      <c r="D68" s="47" t="s">
+        <v>421</v>
+      </c>
+      <c r="E68" s="79" t="s">
         <v>336</v>
       </c>
-      <c r="E3" s="209" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="210"/>
-      <c r="B4" s="211" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" s="189" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="181" t="s">
-        <v>339</v>
-      </c>
-      <c r="E4" s="212"/>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="210"/>
-      <c r="B5" s="213"/>
-      <c r="C5" s="188" t="s">
-        <v>340</v>
-      </c>
-      <c r="D5" s="185" t="s">
-        <v>341</v>
-      </c>
-      <c r="E5" s="212"/>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="210"/>
-      <c r="B6" s="211" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="189" t="s">
-        <v>342</v>
-      </c>
-      <c r="D6" s="181" t="s">
-        <v>339</v>
-      </c>
-      <c r="E6" s="212"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A7" s="210"/>
-      <c r="B7" s="214"/>
-      <c r="C7" s="215" t="s">
-        <v>343</v>
-      </c>
-      <c r="D7" s="182" t="s">
-        <v>341</v>
-      </c>
-      <c r="E7" s="212"/>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="206" t="s">
-        <v>344</v>
-      </c>
-      <c r="B8" s="216" t="s">
-        <v>345</v>
-      </c>
-      <c r="C8" s="187" t="s">
-        <v>346</v>
-      </c>
-      <c r="D8" s="183" t="s">
-        <v>347</v>
-      </c>
-      <c r="E8" s="217" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75">
-      <c r="A9" s="210"/>
-      <c r="B9" s="218"/>
-      <c r="C9" s="188" t="s">
-        <v>343</v>
-      </c>
-      <c r="D9" s="184" t="s">
-        <v>341</v>
-      </c>
-      <c r="E9" s="219"/>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="210"/>
-      <c r="B10" s="220" t="s">
-        <v>348</v>
-      </c>
-      <c r="C10" s="189" t="s">
-        <v>346</v>
-      </c>
-      <c r="D10" s="181" t="s">
-        <v>349</v>
-      </c>
-      <c r="E10" s="219"/>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="210"/>
-      <c r="B11" s="218"/>
-      <c r="C11" s="188" t="s">
-        <v>343</v>
-      </c>
-      <c r="D11" s="185" t="s">
-        <v>341</v>
-      </c>
-      <c r="E11" s="219"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="210"/>
-      <c r="B12" s="220" t="s">
-        <v>350</v>
-      </c>
-      <c r="C12" s="189" t="s">
-        <v>346</v>
-      </c>
-      <c r="D12" s="181" t="s">
-        <v>351</v>
-      </c>
-      <c r="E12" s="219"/>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="210"/>
-      <c r="B13" s="218"/>
-      <c r="C13" s="188" t="s">
-        <v>340</v>
-      </c>
-      <c r="D13" s="185" t="s">
-        <v>341</v>
-      </c>
-      <c r="E13" s="219"/>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="210"/>
-      <c r="B14" s="220" t="s">
-        <v>133</v>
-      </c>
-      <c r="C14" s="189" t="s">
-        <v>346</v>
-      </c>
-      <c r="D14" s="181" t="s">
-        <v>352</v>
-      </c>
-      <c r="E14" s="219"/>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="210"/>
-      <c r="B15" s="218"/>
-      <c r="C15" s="188" t="s">
-        <v>343</v>
-      </c>
-      <c r="D15" s="185" t="s">
-        <v>341</v>
-      </c>
-      <c r="E15" s="219"/>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="210"/>
-      <c r="B16" s="220" t="s">
-        <v>353</v>
-      </c>
-      <c r="C16" s="189" t="s">
-        <v>346</v>
-      </c>
-      <c r="D16" s="181" t="s">
-        <v>354</v>
-      </c>
-      <c r="E16" s="219"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="210"/>
-      <c r="B17" s="218"/>
-      <c r="C17" s="188" t="s">
-        <v>340</v>
-      </c>
-      <c r="D17" s="185" t="s">
-        <v>341</v>
-      </c>
-      <c r="E17" s="219"/>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="210"/>
-      <c r="B18" s="221" t="s">
-        <v>355</v>
-      </c>
-      <c r="C18" s="189" t="s">
-        <v>346</v>
-      </c>
-      <c r="D18" s="181" t="s">
-        <v>356</v>
-      </c>
-      <c r="E18" s="219"/>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="210"/>
-      <c r="B19" s="213"/>
-      <c r="C19" s="188" t="s">
-        <v>340</v>
-      </c>
-      <c r="D19" s="185" t="s">
-        <v>341</v>
-      </c>
-      <c r="E19" s="219"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="210"/>
-      <c r="B20" s="221" t="s">
-        <v>357</v>
-      </c>
-      <c r="C20" s="189" t="s">
-        <v>346</v>
-      </c>
-      <c r="D20" s="181" t="s">
-        <v>358</v>
-      </c>
-      <c r="E20" s="219"/>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="210"/>
-      <c r="B21" s="213"/>
-      <c r="C21" s="188" t="s">
-        <v>340</v>
-      </c>
-      <c r="D21" s="185" t="s">
-        <v>341</v>
-      </c>
-      <c r="E21" s="219"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="210"/>
-      <c r="B22" s="221" t="s">
-        <v>359</v>
-      </c>
-      <c r="C22" s="189" t="s">
-        <v>346</v>
-      </c>
-      <c r="D22" s="181" t="s">
-        <v>360</v>
-      </c>
-      <c r="E22" s="219"/>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="210"/>
-      <c r="B23" s="213"/>
-      <c r="C23" s="188" t="s">
-        <v>340</v>
-      </c>
-      <c r="D23" s="185" t="s">
-        <v>341</v>
-      </c>
-      <c r="E23" s="219"/>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" s="210"/>
-      <c r="B24" s="221" t="s">
-        <v>361</v>
-      </c>
-      <c r="C24" s="189" t="s">
-        <v>346</v>
-      </c>
-      <c r="D24" s="181" t="s">
-        <v>362</v>
-      </c>
-      <c r="E24" s="219"/>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="210"/>
-      <c r="B25" s="214"/>
-      <c r="C25" s="215" t="s">
-        <v>340</v>
-      </c>
-      <c r="D25" s="186" t="s">
-        <v>341</v>
-      </c>
-      <c r="E25" s="219"/>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" s="210"/>
-      <c r="B26" s="220" t="s">
-        <v>363</v>
-      </c>
-      <c r="C26" s="189" t="s">
-        <v>346</v>
-      </c>
-      <c r="D26" s="181" t="s">
-        <v>364</v>
-      </c>
-      <c r="E26" s="219"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A27" s="210"/>
-      <c r="B27" s="218"/>
-      <c r="C27" s="188" t="s">
-        <v>340</v>
-      </c>
-      <c r="D27" s="185" t="s">
-        <v>341</v>
-      </c>
-      <c r="E27" s="219"/>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="206" t="s">
-        <v>365</v>
-      </c>
-      <c r="B28" s="216" t="s">
-        <v>133</v>
-      </c>
-      <c r="C28" s="187" t="s">
-        <v>366</v>
-      </c>
-      <c r="D28" s="183" t="s">
-        <v>367</v>
-      </c>
-      <c r="E28" s="222" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="210"/>
-      <c r="B29" s="218"/>
-      <c r="C29" s="188" t="s">
-        <v>340</v>
-      </c>
-      <c r="D29" s="185" t="s">
-        <v>341</v>
-      </c>
-      <c r="E29" s="223"/>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="210"/>
-      <c r="B30" s="220" t="s">
-        <v>368</v>
-      </c>
-      <c r="C30" s="189" t="s">
-        <v>366</v>
-      </c>
-      <c r="D30" s="181" t="s">
-        <v>369</v>
-      </c>
-      <c r="E30" s="223"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="210"/>
-      <c r="B31" s="218"/>
-      <c r="C31" s="188" t="s">
-        <v>340</v>
-      </c>
-      <c r="D31" s="185" t="s">
-        <v>341</v>
-      </c>
-      <c r="E31" s="223"/>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="210"/>
-      <c r="B32" s="220" t="s">
-        <v>370</v>
-      </c>
-      <c r="C32" s="189" t="s">
-        <v>366</v>
-      </c>
-      <c r="D32" s="181" t="s">
-        <v>371</v>
-      </c>
-      <c r="E32" s="223"/>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A33" s="210"/>
-      <c r="B33" s="224"/>
-      <c r="C33" s="215" t="s">
-        <v>340</v>
-      </c>
-      <c r="D33" s="182" t="s">
-        <v>341</v>
-      </c>
-      <c r="E33" s="223"/>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="210"/>
-      <c r="B34" s="206" t="s">
-        <v>363</v>
-      </c>
-      <c r="C34" s="187" t="s">
-        <v>366</v>
-      </c>
-      <c r="D34" s="183" t="s">
-        <v>364</v>
-      </c>
-      <c r="E34" s="225" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="210"/>
-      <c r="B35" s="226"/>
-      <c r="C35" s="188" t="s">
-        <v>340</v>
-      </c>
-      <c r="D35" s="185" t="s">
-        <v>341</v>
-      </c>
-      <c r="E35" s="227"/>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="210"/>
-      <c r="B36" s="228" t="s">
-        <v>372</v>
-      </c>
-      <c r="C36" s="189" t="s">
-        <v>366</v>
-      </c>
-      <c r="D36" s="181" t="s">
-        <v>373</v>
-      </c>
-      <c r="E36" s="227"/>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="210"/>
-      <c r="B37" s="226"/>
-      <c r="C37" s="188" t="s">
-        <v>343</v>
-      </c>
-      <c r="D37" s="185" t="s">
-        <v>341</v>
-      </c>
-      <c r="E37" s="227"/>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="210"/>
-      <c r="B38" s="228" t="s">
-        <v>374</v>
-      </c>
-      <c r="C38" s="189" t="s">
-        <v>366</v>
-      </c>
-      <c r="D38" s="181" t="s">
-        <v>375</v>
-      </c>
-      <c r="E38" s="227"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A39" s="210"/>
-      <c r="B39" s="229"/>
-      <c r="C39" s="230" t="s">
-        <v>343</v>
-      </c>
-      <c r="D39" s="231" t="s">
-        <v>341</v>
-      </c>
-      <c r="E39" s="232"/>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="210"/>
-      <c r="B40" s="206" t="s">
-        <v>136</v>
-      </c>
-      <c r="C40" s="187" t="s">
-        <v>366</v>
-      </c>
-      <c r="D40" s="183" t="s">
-        <v>375</v>
-      </c>
-      <c r="E40" s="222" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="210"/>
-      <c r="B41" s="226"/>
-      <c r="C41" s="188" t="s">
-        <v>343</v>
-      </c>
-      <c r="D41" s="185" t="s">
-        <v>341</v>
-      </c>
-      <c r="E41" s="223"/>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="210"/>
-      <c r="B42" s="233" t="s">
-        <v>377</v>
-      </c>
-      <c r="C42" s="189" t="s">
-        <v>366</v>
-      </c>
-      <c r="D42" s="181" t="s">
-        <v>375</v>
-      </c>
-      <c r="E42" s="223"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A43" s="210"/>
-      <c r="B43" s="234"/>
-      <c r="C43" s="230" t="s">
-        <v>343</v>
-      </c>
-      <c r="D43" s="231" t="s">
-        <v>341</v>
-      </c>
-      <c r="E43" s="235"/>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="206" t="s">
-        <v>378</v>
-      </c>
-      <c r="B44" s="236" t="s">
-        <v>119</v>
-      </c>
-      <c r="C44" s="187" t="s">
-        <v>120</v>
-      </c>
-      <c r="D44" s="183" t="s">
-        <v>379</v>
-      </c>
-      <c r="E44" s="237" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="210"/>
-      <c r="B45" s="238"/>
-      <c r="C45" s="188" t="s">
-        <v>343</v>
-      </c>
-      <c r="D45" s="185" t="s">
-        <v>341</v>
-      </c>
-      <c r="E45" s="239"/>
-    </row>
-    <row r="46" spans="1:5" ht="30">
-      <c r="A46" s="210"/>
-      <c r="B46" s="190" t="s">
-        <v>380</v>
-      </c>
-      <c r="C46" s="189" t="s">
-        <v>121</v>
-      </c>
-      <c r="D46" s="181" t="s">
-        <v>381</v>
-      </c>
-      <c r="E46" s="239"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A47" s="210"/>
-      <c r="B47" s="191"/>
-      <c r="C47" s="215" t="s">
-        <v>340</v>
-      </c>
-      <c r="D47" s="182" t="s">
-        <v>341</v>
-      </c>
-      <c r="E47" s="239"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="240" t="s">
-        <v>382</v>
-      </c>
-      <c r="B48" s="192" t="s">
-        <v>383</v>
-      </c>
-      <c r="C48" s="192" t="s">
-        <v>111</v>
-      </c>
-      <c r="D48" s="241" t="s">
-        <v>384</v>
-      </c>
-      <c r="E48" s="225" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="242"/>
-      <c r="B49" s="193" t="s">
-        <v>155</v>
-      </c>
-      <c r="C49" s="193" t="s">
-        <v>386</v>
-      </c>
-      <c r="D49" s="194" t="s">
-        <v>387</v>
-      </c>
-      <c r="E49" s="227"/>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="242"/>
-      <c r="B50" s="193" t="s">
-        <v>156</v>
-      </c>
-      <c r="C50" s="193" t="s">
-        <v>386</v>
-      </c>
-      <c r="D50" s="194" t="s">
-        <v>388</v>
-      </c>
-      <c r="E50" s="227"/>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="242"/>
-      <c r="B51" s="193" t="s">
-        <v>157</v>
-      </c>
-      <c r="C51" s="193" t="s">
-        <v>386</v>
-      </c>
-      <c r="D51" s="243" t="s">
-        <v>389</v>
-      </c>
-      <c r="E51" s="227"/>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="242"/>
-      <c r="B52" s="193" t="s">
-        <v>158</v>
-      </c>
-      <c r="C52" s="193" t="s">
-        <v>386</v>
-      </c>
-      <c r="D52" s="243" t="s">
-        <v>390</v>
-      </c>
-      <c r="E52" s="227"/>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="242"/>
-      <c r="B53" s="193" t="s">
-        <v>159</v>
-      </c>
-      <c r="C53" s="193" t="s">
-        <v>386</v>
-      </c>
-      <c r="D53" s="56" t="s">
-        <v>391</v>
-      </c>
-      <c r="E53" s="227"/>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="242"/>
-      <c r="B54" s="22" t="s">
-        <v>392</v>
-      </c>
-      <c r="C54" s="193" t="s">
-        <v>386</v>
-      </c>
-      <c r="D54" s="243" t="s">
-        <v>393</v>
-      </c>
-      <c r="E54" s="227"/>
-    </row>
-    <row r="55" spans="1:5">
-      <c r="A55" s="242"/>
-      <c r="B55" s="22" t="s">
-        <v>394</v>
-      </c>
-      <c r="C55" s="193" t="s">
-        <v>386</v>
-      </c>
-      <c r="D55" s="243" t="s">
-        <v>395</v>
-      </c>
-      <c r="E55" s="227"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="242"/>
-      <c r="B56" s="22" t="s">
-        <v>396</v>
-      </c>
-      <c r="C56" s="193" t="s">
-        <v>386</v>
-      </c>
-      <c r="D56" s="194" t="s">
-        <v>397</v>
-      </c>
-      <c r="E56" s="227"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="242"/>
-      <c r="B57" s="22" t="s">
-        <v>398</v>
-      </c>
-      <c r="C57" s="193" t="s">
-        <v>386</v>
-      </c>
-      <c r="D57" s="194" t="s">
-        <v>399</v>
-      </c>
-      <c r="E57" s="227"/>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="242"/>
-      <c r="B58" s="22" t="s">
-        <v>400</v>
-      </c>
-      <c r="C58" s="193" t="s">
-        <v>386</v>
-      </c>
-      <c r="D58" s="194" t="s">
-        <v>401</v>
-      </c>
-      <c r="E58" s="227"/>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="242"/>
-      <c r="B59" s="22" t="s">
-        <v>402</v>
-      </c>
-      <c r="C59" s="193" t="s">
-        <v>386</v>
-      </c>
-      <c r="D59" s="194" t="s">
-        <v>403</v>
-      </c>
-      <c r="E59" s="227"/>
-    </row>
-    <row r="60" spans="1:5">
-      <c r="A60" s="242"/>
-      <c r="B60" s="22" t="s">
-        <v>404</v>
-      </c>
-      <c r="C60" s="193" t="s">
-        <v>386</v>
-      </c>
-      <c r="D60" s="194" t="s">
-        <v>405</v>
-      </c>
-      <c r="E60" s="227"/>
-    </row>
-    <row r="61" spans="1:5">
-      <c r="A61" s="242"/>
-      <c r="B61" s="22" t="s">
-        <v>406</v>
-      </c>
-      <c r="C61" s="193" t="s">
-        <v>386</v>
-      </c>
-      <c r="D61" s="195" t="s">
-        <v>407</v>
-      </c>
-      <c r="E61" s="227"/>
-    </row>
-    <row r="62" spans="1:5">
-      <c r="A62" s="242"/>
-      <c r="B62" s="22" t="s">
-        <v>408</v>
-      </c>
-      <c r="C62" s="193" t="s">
-        <v>386</v>
-      </c>
-      <c r="D62" s="196"/>
-      <c r="E62" s="227"/>
-    </row>
-    <row r="63" spans="1:5">
-      <c r="A63" s="242"/>
-      <c r="B63" s="22" t="s">
-        <v>409</v>
-      </c>
-      <c r="C63" s="193" t="s">
-        <v>386</v>
-      </c>
-      <c r="D63" s="193" t="s">
-        <v>410</v>
-      </c>
-      <c r="E63" s="227"/>
-    </row>
-    <row r="64" spans="1:5">
-      <c r="A64" s="242"/>
-      <c r="B64" s="22" t="s">
-        <v>411</v>
-      </c>
-      <c r="C64" s="193" t="s">
-        <v>386</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="E64" s="227"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="242"/>
-      <c r="B65" s="22" t="s">
-        <v>413</v>
-      </c>
-      <c r="C65" s="193" t="s">
-        <v>386</v>
-      </c>
-      <c r="D65" s="194" t="s">
-        <v>414</v>
-      </c>
-      <c r="E65" s="227"/>
-    </row>
-    <row r="66" spans="1:5" ht="26.25">
-      <c r="A66" s="242"/>
-      <c r="B66" s="22" t="s">
-        <v>415</v>
-      </c>
-      <c r="C66" s="193" t="s">
-        <v>386</v>
-      </c>
-      <c r="D66" s="194" t="s">
-        <v>416</v>
-      </c>
-      <c r="E66" s="227"/>
-    </row>
-    <row r="67" spans="1:5" ht="15.75" thickBot="1">
-      <c r="A67" s="242"/>
-      <c r="B67" s="51" t="s">
-        <v>417</v>
-      </c>
-      <c r="C67" s="52" t="s">
-        <v>386</v>
-      </c>
-      <c r="D67" s="197" t="s">
-        <v>418</v>
-      </c>
-      <c r="E67" s="227"/>
-    </row>
-    <row r="68" spans="1:5" ht="26.25">
-      <c r="A68" s="206" t="s">
-        <v>419</v>
-      </c>
-      <c r="B68" s="244" t="s">
-        <v>420</v>
-      </c>
-      <c r="C68" s="198" t="s">
-        <v>421</v>
-      </c>
-      <c r="D68" s="199" t="s">
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="77"/>
+      <c r="B69" s="82" t="s">
         <v>422</v>
       </c>
-      <c r="E68" s="245" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
-      <c r="A69" s="210"/>
-      <c r="B69" s="220" t="s">
+      <c r="C69" s="48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D69" s="85" t="s">
         <v>423</v>
       </c>
-      <c r="C69" s="200" t="s">
-        <v>172</v>
-      </c>
-      <c r="D69" s="201" t="s">
+      <c r="E69" s="80"/>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="77"/>
+      <c r="B70" s="83"/>
+      <c r="C70" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D70" s="68"/>
+      <c r="E70" s="80"/>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="77"/>
+      <c r="B71" s="84"/>
+      <c r="C71" s="49" t="s">
         <v>424</v>
       </c>
-      <c r="E69" s="246"/>
-    </row>
-    <row r="70" spans="1:5">
-      <c r="A70" s="210"/>
-      <c r="B70" s="224"/>
-      <c r="C70" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D70" s="97"/>
-      <c r="E70" s="246"/>
-    </row>
-    <row r="71" spans="1:5">
-      <c r="A71" s="210"/>
-      <c r="B71" s="218"/>
-      <c r="C71" s="202" t="s">
+      <c r="D71" s="69"/>
+      <c r="E71" s="80"/>
+    </row>
+    <row r="72" spans="1:5" ht="30.75" thickBot="1">
+      <c r="A72" s="78"/>
+      <c r="B72" s="61" t="s">
         <v>425</v>
       </c>
-      <c r="D71" s="98"/>
-      <c r="E71" s="246"/>
-    </row>
-    <row r="72" spans="1:5" ht="30.75" thickBot="1">
-      <c r="A72" s="229"/>
-      <c r="B72" s="247" t="s">
+      <c r="C72" s="50" t="s">
         <v>426</v>
       </c>
-      <c r="C72" s="203" t="s">
+      <c r="D72" s="51" t="s">
         <v>427</v>
       </c>
-      <c r="D72" s="204" t="s">
-        <v>428</v>
-      </c>
-      <c r="E72" s="248"/>
+      <c r="E72" s="81"/>
     </row>
     <row r="73" spans="1:5">
-      <c r="A73" s="249"/>
-      <c r="B73" s="249"/>
-      <c r="C73" s="249"/>
-      <c r="D73" s="249"/>
-      <c r="E73" s="249"/>
+      <c r="A73" s="62"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="62"/>
+      <c r="D73" s="62"/>
+      <c r="E73" s="62"/>
     </row>
     <row r="74" spans="1:5">
-      <c r="A74" s="249"/>
-      <c r="B74" s="249"/>
-      <c r="C74" s="249"/>
-      <c r="D74" s="249"/>
-      <c r="E74" s="249"/>
+      <c r="A74" s="62"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="62"/>
+      <c r="E74" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="A48:A67"/>
-    <mergeCell ref="E48:E67"/>
-    <mergeCell ref="D61:D62"/>
-    <mergeCell ref="A68:A72"/>
-    <mergeCell ref="E68:E72"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="D69:D71"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="E40:E43"/>
-    <mergeCell ref="B42:B43"/>
-    <mergeCell ref="A44:A47"/>
-    <mergeCell ref="B44:B45"/>
-    <mergeCell ref="E44:E47"/>
-    <mergeCell ref="B46:B47"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A28:A43"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="E28:E33"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="B32:B33"/>
-    <mergeCell ref="B34:B35"/>
-    <mergeCell ref="E34:E39"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="B38:B39"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
     <mergeCell ref="B24:B25"/>
     <mergeCell ref="A2:E2"/>
     <mergeCell ref="A3:A7"/>
@@ -10808,6 +10725,35 @@
     <mergeCell ref="E8:E27"/>
     <mergeCell ref="B10:B11"/>
     <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A28:A43"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="E28:E33"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
+    <mergeCell ref="E34:E39"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="B38:B39"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="E40:E43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A44:A47"/>
+    <mergeCell ref="B44:B45"/>
+    <mergeCell ref="E44:E47"/>
+    <mergeCell ref="B46:B47"/>
+    <mergeCell ref="A48:A67"/>
+    <mergeCell ref="E48:E67"/>
+    <mergeCell ref="D61:D62"/>
+    <mergeCell ref="A68:A72"/>
+    <mergeCell ref="E68:E72"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="D69:D71"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="D49" r:id="rId1"/>
@@ -10834,8 +10780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J63"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I65" sqref="I65"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10844,990 +10790,1000 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="122" t="s">
         <v>328</v>
       </c>
-      <c r="B1" s="168"/>
-      <c r="C1" s="168"/>
-      <c r="D1" s="168"/>
-      <c r="E1" s="168"/>
-      <c r="F1" s="168"/>
-      <c r="G1" s="168"/>
-      <c r="H1" s="168"/>
-      <c r="I1" s="168"/>
-      <c r="J1" s="168"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="122"/>
+      <c r="J1" s="122"/>
     </row>
     <row r="2" spans="1:10" ht="61.5" customHeight="1">
-      <c r="A2" s="169" t="s">
+      <c r="A2" s="121" t="s">
         <v>329</v>
       </c>
-      <c r="B2" s="157"/>
-      <c r="C2" s="157"/>
-      <c r="D2" s="157"/>
-      <c r="E2" s="157"/>
-      <c r="F2" s="157"/>
-      <c r="G2" s="157"/>
-      <c r="H2" s="157"/>
-      <c r="I2" s="157"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="120"/>
+      <c r="F2" s="120"/>
+      <c r="G2" s="120"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="120"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="158" t="s">
+      <c r="A3" s="112" t="s">
         <v>267</v>
       </c>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
+      <c r="B3" s="112"/>
+      <c r="C3" s="112"/>
+      <c r="D3" s="112"/>
+      <c r="E3" s="112"/>
+      <c r="F3" s="112"/>
+      <c r="G3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="159" t="s">
+      <c r="A4" s="111" t="s">
         <v>268</v>
       </c>
-      <c r="B4" s="159"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
+      <c r="B4" s="111"/>
+      <c r="C4" s="111"/>
+      <c r="D4" s="111"/>
+      <c r="E4" s="111"/>
+      <c r="F4" s="111"/>
+      <c r="G4" s="111"/>
+      <c r="H4" s="111"/>
+      <c r="I4" s="111"/>
+      <c r="J4" s="111"/>
     </row>
     <row r="5" spans="1:10" ht="39" customHeight="1">
-      <c r="A5" s="170" t="s">
+      <c r="A5" s="116" t="s">
         <v>269</v>
       </c>
-      <c r="B5" s="170"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="160" t="s">
+      <c r="B5" s="116"/>
+      <c r="C5" s="116"/>
+      <c r="D5" s="116"/>
+      <c r="E5" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="G5" s="161"/>
-      <c r="H5" s="161"/>
-      <c r="I5" s="161"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="111" t="s">
         <v>271</v>
       </c>
-      <c r="B6" s="159"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="159"/>
-      <c r="E6" s="159"/>
-      <c r="F6" s="159"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="159"/>
-      <c r="I6" s="159"/>
-      <c r="J6" s="159"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="111"/>
+      <c r="F6" s="111"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="111"/>
+      <c r="I6" s="111"/>
+      <c r="J6" s="111"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="173" t="s">
+      <c r="A7" s="118" t="s">
         <v>272</v>
       </c>
-      <c r="B7" s="173"/>
-      <c r="C7" s="173"/>
-      <c r="D7" s="173"/>
-      <c r="E7" s="172" t="s">
+      <c r="B7" s="118"/>
+      <c r="C7" s="118"/>
+      <c r="D7" s="118"/>
+      <c r="E7" s="31" t="s">
         <v>307</v>
       </c>
-      <c r="F7" s="161"/>
-      <c r="G7" s="161"/>
-      <c r="H7" s="161"/>
-      <c r="I7" s="161"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="173" t="s">
+      <c r="A8" s="118" t="s">
         <v>273</v>
       </c>
-      <c r="B8" s="173"/>
-      <c r="C8" s="173"/>
-      <c r="D8" s="173"/>
-      <c r="E8" s="161" t="s">
+      <c r="B8" s="118"/>
+      <c r="C8" s="118"/>
+      <c r="D8" s="118"/>
+      <c r="E8" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="F8" s="161" t="s">
+      <c r="F8" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="G8" s="161" t="s">
+      <c r="G8" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="H8" s="161"/>
-      <c r="I8" s="161"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="174" t="s">
+      <c r="A9" s="117" t="s">
         <v>305</v>
       </c>
-      <c r="B9" s="174"/>
-      <c r="C9" s="174"/>
-      <c r="D9" s="174"/>
-      <c r="E9" s="172" t="s">
+      <c r="B9" s="117"/>
+      <c r="C9" s="117"/>
+      <c r="D9" s="117"/>
+      <c r="E9" s="31" t="s">
         <v>306</v>
       </c>
-      <c r="F9" s="161"/>
-      <c r="G9" s="161"/>
-      <c r="H9" s="161"/>
-      <c r="I9" s="161"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="175" t="s">
+      <c r="A10" s="114" t="s">
         <v>308</v>
       </c>
-      <c r="B10" s="175"/>
-      <c r="C10" s="175"/>
-      <c r="D10" s="175"/>
-      <c r="E10" s="175"/>
-      <c r="F10" s="175"/>
-      <c r="G10" s="175"/>
-      <c r="H10" s="175"/>
-      <c r="I10" s="175"/>
-      <c r="J10" s="175"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="114"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="173" t="s">
+      <c r="A11" s="118" t="s">
         <v>277</v>
       </c>
-      <c r="B11" s="173"/>
-      <c r="C11" s="173"/>
-      <c r="D11" s="173"/>
-      <c r="E11" s="171" t="s">
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="119" t="s">
         <v>309</v>
       </c>
-      <c r="F11" s="157"/>
-      <c r="G11" s="161"/>
-      <c r="H11" s="161"/>
-      <c r="I11" s="161"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="158" t="s">
+      <c r="A12" s="112" t="s">
         <v>278</v>
       </c>
-      <c r="B12" s="158"/>
-      <c r="C12" s="158"/>
-      <c r="D12" s="158"/>
-      <c r="E12" s="158"/>
-      <c r="F12" s="158"/>
-      <c r="G12" s="158"/>
-      <c r="H12" s="158"/>
-      <c r="I12" s="158"/>
-      <c r="J12" s="158"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="112"/>
+      <c r="D12" s="112"/>
+      <c r="E12" s="112"/>
+      <c r="F12" s="112"/>
+      <c r="G12" s="112"/>
+      <c r="H12" s="112"/>
+      <c r="I12" s="112"/>
+      <c r="J12" s="112"/>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="159" t="s">
+      <c r="A13" s="111" t="s">
         <v>279</v>
       </c>
-      <c r="B13" s="159"/>
-      <c r="C13" s="159"/>
-      <c r="D13" s="159"/>
-      <c r="E13" s="159"/>
-      <c r="F13" s="159"/>
-      <c r="G13" s="159"/>
-      <c r="H13" s="159"/>
-      <c r="I13" s="159"/>
-      <c r="J13" s="159"/>
+      <c r="B13" s="111"/>
+      <c r="C13" s="111"/>
+      <c r="D13" s="111"/>
+      <c r="E13" s="111"/>
+      <c r="F13" s="111"/>
+      <c r="G13" s="111"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="111"/>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="161" t="s">
+      <c r="A14" s="24" t="s">
         <v>280</v>
       </c>
-      <c r="B14" s="161" t="s">
+      <c r="B14" s="24" t="s">
         <v>281</v>
       </c>
-      <c r="C14" s="172" t="s">
+      <c r="C14" s="31" t="s">
         <v>313</v>
       </c>
-      <c r="D14" s="161" t="s">
+      <c r="D14" s="24" t="s">
         <v>283</v>
       </c>
-      <c r="E14" s="172" t="s">
+      <c r="E14" s="31" t="s">
         <v>311</v>
       </c>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="161" t="s">
+      <c r="A15" s="24" t="s">
         <v>282</v>
       </c>
-      <c r="B15" s="172" t="s">
+      <c r="B15" s="31" t="s">
         <v>310</v>
       </c>
-      <c r="C15" s="172" t="s">
+      <c r="C15" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="D15" s="161" t="s">
+      <c r="D15" s="24" t="s">
         <v>284</v>
       </c>
-      <c r="E15" s="172" t="s">
+      <c r="E15" s="31" t="s">
         <v>312</v>
       </c>
-      <c r="F15" s="161"/>
-      <c r="G15" s="161"/>
-      <c r="H15" s="161"/>
-      <c r="I15" s="161"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="159" t="s">
+      <c r="A16" s="111" t="s">
         <v>285</v>
       </c>
-      <c r="B16" s="159"/>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
-      <c r="E16" s="159"/>
-      <c r="F16" s="159"/>
-      <c r="G16" s="159"/>
-      <c r="H16" s="159"/>
-      <c r="I16" s="159"/>
-      <c r="J16" s="159"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="111"/>
+      <c r="D16" s="111"/>
+      <c r="E16" s="111"/>
+      <c r="F16" s="111"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="111"/>
     </row>
     <row r="17" spans="1:10" ht="29.25" customHeight="1">
       <c r="A17" t="s">
         <v>316</v>
       </c>
-      <c r="B17" s="172" t="s">
+      <c r="B17" s="31" t="s">
         <v>315</v>
       </c>
-      <c r="C17" s="161"/>
-      <c r="D17" s="161"/>
-      <c r="E17" s="161"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="161"/>
-      <c r="H17" s="161"/>
-      <c r="I17" s="161"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="161" t="s">
+      <c r="A18" s="24" t="s">
         <v>286</v>
       </c>
-      <c r="B18" s="161">
+      <c r="B18" s="24">
         <v>38</v>
       </c>
-      <c r="C18" s="161"/>
-      <c r="D18" s="161"/>
-      <c r="E18" s="161"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="161"/>
-      <c r="H18" s="161"/>
-      <c r="I18" s="161"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="161" t="s">
+      <c r="A19" s="24" t="s">
         <v>287</v>
       </c>
-      <c r="B19" s="161">
+      <c r="B19" s="24">
         <v>1</v>
       </c>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="161"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="161" t="s">
+      <c r="A20" s="24" t="s">
         <v>288</v>
       </c>
-      <c r="B20" s="161">
+      <c r="B20" s="24">
         <v>2</v>
       </c>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="161" t="s">
+      <c r="A21" s="24" t="s">
         <v>289</v>
       </c>
-      <c r="B21" s="161">
+      <c r="B21" s="24">
         <v>1</v>
       </c>
-      <c r="C21" s="161"/>
-      <c r="D21" s="161"/>
-      <c r="E21" s="161"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="161"/>
-      <c r="H21" s="161"/>
-      <c r="I21" s="161"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="161" t="s">
+      <c r="A22" s="24" t="s">
         <v>290</v>
       </c>
-      <c r="B22" s="161">
+      <c r="B22" s="24">
         <v>2</v>
       </c>
-      <c r="C22" s="161"/>
-      <c r="D22" s="161"/>
-      <c r="E22" s="161"/>
-      <c r="F22" s="161"/>
-      <c r="G22" s="161"/>
-      <c r="H22" s="161"/>
-      <c r="I22" s="161"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="161" t="s">
+      <c r="A23" s="24" t="s">
         <v>291</v>
       </c>
-      <c r="B23" s="161">
+      <c r="B23" s="24">
         <v>4</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="161"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="172" t="s">
+      <c r="A24" s="31" t="s">
         <v>318</v>
       </c>
-      <c r="B24" s="161">
+      <c r="B24" s="24">
         <v>3</v>
       </c>
-      <c r="C24" s="161"/>
-      <c r="D24" s="161"/>
-      <c r="E24" s="161"/>
-      <c r="F24" s="161"/>
-      <c r="G24" s="161"/>
-      <c r="H24" s="161"/>
-      <c r="I24" s="161"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="172" t="s">
+      <c r="A25" s="31" t="s">
         <v>320</v>
       </c>
-      <c r="B25" s="161">
+      <c r="B25" s="24">
         <v>45</v>
       </c>
-      <c r="C25" s="161"/>
-      <c r="D25" s="161"/>
-      <c r="E25" s="161"/>
-      <c r="F25" s="161"/>
-      <c r="G25" s="161"/>
-      <c r="H25" s="161"/>
-      <c r="I25" s="161"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:10" ht="15" customHeight="1">
-      <c r="A26" s="172" t="s">
+      <c r="A26" s="31" t="s">
         <v>317</v>
       </c>
       <c r="B26">
         <f>SUM(B18:B25)</f>
         <v>96</v>
       </c>
-      <c r="C26" s="161"/>
-      <c r="D26" s="161"/>
-      <c r="E26" s="161"/>
-      <c r="F26" s="161"/>
-      <c r="G26" s="161"/>
-      <c r="H26" s="161"/>
-      <c r="I26" s="161"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="176" t="s">
+      <c r="A27" s="115" t="s">
         <v>319</v>
       </c>
-      <c r="B27" s="176"/>
-      <c r="C27" s="176"/>
-      <c r="D27" s="176"/>
-      <c r="E27" s="176"/>
-      <c r="F27" s="176"/>
-      <c r="G27" s="176"/>
-      <c r="H27" s="176"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="176"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="161" t="s">
+      <c r="A28" s="24" t="s">
         <v>292</v>
       </c>
-      <c r="B28" s="162">
+      <c r="B28" s="25">
         <f>B29+B30+B31+B32</f>
         <v>16</v>
       </c>
-      <c r="C28" s="161"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="161" t="s">
+      <c r="A29" s="24" t="s">
         <v>293</v>
       </c>
-      <c r="B29" s="162">
+      <c r="B29" s="25">
         <v>2</v>
       </c>
-      <c r="C29" s="161"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="161"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="161" t="s">
+      <c r="A30" s="24" t="s">
         <v>294</v>
       </c>
-      <c r="B30" s="162">
+      <c r="B30" s="25">
         <v>2</v>
       </c>
-      <c r="C30" s="161"/>
-      <c r="D30" s="161"/>
-      <c r="E30" s="161"/>
-      <c r="F30" s="161"/>
-      <c r="G30" s="161"/>
-      <c r="H30" s="161"/>
-      <c r="I30" s="161"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="161" t="s">
+      <c r="A31" s="24" t="s">
         <v>295</v>
       </c>
-      <c r="B31" s="162">
+      <c r="B31" s="25">
         <v>10</v>
       </c>
-      <c r="C31" s="161"/>
-      <c r="D31" s="161"/>
-      <c r="E31" s="161"/>
-      <c r="F31" s="161"/>
-      <c r="G31" s="161"/>
-      <c r="H31" s="161"/>
-      <c r="I31" s="161"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="161" t="s">
+      <c r="A32" s="24" t="s">
         <v>296</v>
       </c>
-      <c r="B32" s="162">
+      <c r="B32" s="25">
         <v>2</v>
       </c>
-      <c r="C32" s="161"/>
-      <c r="D32" s="161"/>
-      <c r="E32" s="161"/>
-      <c r="F32" s="161"/>
-      <c r="G32" s="161"/>
-      <c r="H32" s="161"/>
-      <c r="I32" s="161"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:10">
-      <c r="A33" s="172" t="s">
+      <c r="A33" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B33" s="161">
+      <c r="B33" s="24">
         <f>B26-B28</f>
         <v>80</v>
       </c>
-      <c r="C33" s="161"/>
-      <c r="D33" s="161"/>
-      <c r="E33" s="161"/>
-      <c r="F33" s="161"/>
-      <c r="G33" s="161"/>
-      <c r="H33" s="161"/>
-      <c r="I33" s="161"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:10">
-      <c r="A34" s="161"/>
-      <c r="B34" s="161"/>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="161"/>
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="161"/>
-      <c r="B35" s="161"/>
-      <c r="C35" s="161"/>
-      <c r="D35" s="161"/>
-      <c r="E35" s="161"/>
-      <c r="F35" s="161"/>
-      <c r="G35" s="161"/>
-      <c r="H35" s="161"/>
-      <c r="I35" s="161"/>
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:10" ht="33" customHeight="1">
-      <c r="A36" s="161"/>
-      <c r="B36" s="161"/>
-      <c r="C36" s="161"/>
-      <c r="D36" s="161"/>
-      <c r="E36" s="161"/>
-      <c r="F36" s="161"/>
-      <c r="G36" s="161"/>
-      <c r="H36" s="161"/>
-      <c r="I36" s="161"/>
+      <c r="A36" s="24"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="159" t="s">
+      <c r="A37" s="111" t="s">
         <v>297</v>
       </c>
-      <c r="B37" s="159"/>
-      <c r="C37" s="159"/>
-      <c r="D37" s="159"/>
-      <c r="E37" s="159"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="159"/>
-      <c r="H37" s="159"/>
-      <c r="I37" s="159"/>
-      <c r="J37" s="159"/>
+      <c r="B37" s="111"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="161" t="s">
+      <c r="A38" s="24" t="s">
         <v>298</v>
       </c>
-      <c r="B38" s="161" t="s">
+      <c r="B38" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="C38" s="163" t="s">
+      <c r="C38" s="26" t="s">
         <v>300</v>
       </c>
-      <c r="D38" s="163" t="s">
+      <c r="D38" s="26" t="s">
         <v>301</v>
       </c>
-      <c r="E38" s="163"/>
-      <c r="F38" s="163"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="161"/>
-      <c r="I38" s="161"/>
+      <c r="E38" s="26"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="162">
+      <c r="A39" s="25">
         <v>1</v>
       </c>
-      <c r="B39" s="177" t="s">
+      <c r="B39" s="32" t="s">
         <v>321</v>
       </c>
-      <c r="C39" s="161" t="b">
+      <c r="C39" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D39" s="164" t="b">
+      <c r="D39" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="E39" s="164"/>
-      <c r="F39" s="161"/>
-      <c r="G39" s="161"/>
-      <c r="H39" s="161"/>
-      <c r="I39" s="161"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
     </row>
     <row r="40" spans="1:10">
-      <c r="A40" s="162">
+      <c r="A40" s="25">
         <v>2</v>
       </c>
-      <c r="B40" s="177" t="s">
+      <c r="B40" s="32" t="s">
         <v>322</v>
       </c>
-      <c r="C40" s="161" t="b">
+      <c r="C40" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D40" s="164" t="b">
+      <c r="D40" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="E40" s="164"/>
-      <c r="F40" s="161"/>
-      <c r="G40" s="161"/>
-      <c r="H40" s="161"/>
-      <c r="I40" s="161"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
     </row>
     <row r="41" spans="1:10">
-      <c r="A41" s="162">
+      <c r="A41" s="25">
         <v>3</v>
       </c>
-      <c r="B41" s="177" t="s">
+      <c r="B41" s="32" t="s">
         <v>213</v>
       </c>
-      <c r="C41" s="161" t="b">
+      <c r="C41" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D41" s="164" t="b">
+      <c r="D41" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="E41" s="164"/>
-      <c r="F41" s="161"/>
-      <c r="G41" s="161"/>
-      <c r="H41" s="161"/>
-      <c r="I41" s="161"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
     </row>
     <row r="42" spans="1:10">
-      <c r="A42" s="162">
+      <c r="A42" s="25">
         <v>4</v>
       </c>
-      <c r="B42" s="177" t="s">
+      <c r="B42" s="32" t="s">
         <v>323</v>
       </c>
-      <c r="C42" s="161" t="b">
+      <c r="C42" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D42" s="164" t="b">
+      <c r="D42" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="E42" s="164"/>
-      <c r="F42" s="161"/>
-      <c r="G42" s="161"/>
-      <c r="H42" s="161"/>
-      <c r="I42" s="161"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="A43" s="162">
+      <c r="A43" s="25">
         <v>5</v>
       </c>
-      <c r="B43" s="177" t="s">
+      <c r="B43" s="32" t="s">
         <v>324</v>
       </c>
-      <c r="C43" s="161" t="b">
+      <c r="C43" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D43" s="164" t="b">
+      <c r="D43" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="E43" s="161"/>
-      <c r="F43" s="161"/>
-      <c r="G43" s="161"/>
-      <c r="H43" s="161"/>
-      <c r="I43" s="161"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="A44" s="162">
+      <c r="A44" s="25">
         <v>6</v>
       </c>
-      <c r="B44" s="177" t="s">
+      <c r="B44" s="32" t="s">
         <v>325</v>
       </c>
-      <c r="C44" s="161" t="b">
+      <c r="C44" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D44" s="164" t="b">
+      <c r="D44" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="E44" s="164"/>
-      <c r="F44" s="161"/>
-      <c r="G44" s="161"/>
-      <c r="H44" s="161"/>
-      <c r="I44" s="161"/>
+      <c r="E44" s="27"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="A45" s="162">
+      <c r="A45" s="25">
         <v>7</v>
       </c>
-      <c r="B45" s="177" t="s">
+      <c r="B45" s="32" t="s">
         <v>326</v>
       </c>
-      <c r="C45" s="161" t="b">
+      <c r="C45" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D45" s="164" t="b">
+      <c r="D45" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="E45" s="164"/>
-      <c r="F45" s="161"/>
-      <c r="G45" s="161"/>
-      <c r="H45" s="161"/>
-      <c r="I45" s="161"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="A46" s="162">
+      <c r="A46" s="25">
         <v>8</v>
       </c>
-      <c r="B46" s="177" t="s">
+      <c r="B46" s="32" t="s">
         <v>327</v>
       </c>
-      <c r="C46" s="161" t="b">
+      <c r="C46" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D46" s="164" t="b">
+      <c r="D46" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="E46" s="164"/>
-      <c r="F46" s="161"/>
-      <c r="G46" s="161"/>
-      <c r="H46" s="161"/>
-      <c r="I46" s="161"/>
+      <c r="E46" s="27"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
     </row>
     <row r="47" spans="1:10">
-      <c r="A47" s="162">
+      <c r="A47" s="25">
         <v>9</v>
       </c>
-      <c r="B47" s="177" t="s">
+      <c r="B47" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="C47" s="161" t="b">
+      <c r="C47" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D47" s="164" t="b">
+      <c r="D47" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="E47" s="164"/>
-      <c r="F47" s="161"/>
-      <c r="G47" s="161"/>
-      <c r="H47" s="161"/>
-      <c r="I47" s="161"/>
+      <c r="E47" s="27"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
     </row>
     <row r="48" spans="1:10">
-      <c r="A48" s="161">
+      <c r="A48" s="24">
         <v>10</v>
       </c>
-      <c r="B48" s="177" t="s">
+      <c r="B48" s="32" t="s">
         <v>257</v>
       </c>
-      <c r="C48" s="161" t="b">
+      <c r="C48" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D48" s="164" t="b">
+      <c r="D48" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="E48" s="161"/>
-      <c r="F48" s="161"/>
-      <c r="G48" s="161"/>
-      <c r="H48" s="161"/>
-      <c r="I48" s="161"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
     </row>
     <row r="49" spans="1:10">
-      <c r="A49" s="161">
+      <c r="A49" s="24">
         <v>11</v>
       </c>
-      <c r="B49" s="177" t="s">
+      <c r="B49" s="32" t="s">
         <v>227</v>
       </c>
-      <c r="C49" s="161" t="b">
+      <c r="C49" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D49" s="164" t="b">
+      <c r="D49" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="E49" s="161"/>
-      <c r="F49" s="161"/>
-      <c r="G49" s="161"/>
-      <c r="H49" s="161"/>
-      <c r="I49" s="161"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
     </row>
     <row r="50" spans="1:10">
-      <c r="A50" s="161">
+      <c r="A50" s="24">
         <v>12</v>
       </c>
-      <c r="B50" s="177" t="s">
+      <c r="B50" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="C50" s="161" t="b">
+      <c r="C50" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D50" s="164" t="b">
+      <c r="D50" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="E50" s="161"/>
-      <c r="F50" s="161"/>
-      <c r="G50" s="161"/>
-      <c r="H50" s="161"/>
-      <c r="I50" s="161"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
     </row>
     <row r="51" spans="1:10">
-      <c r="A51" s="161">
+      <c r="A51" s="24">
         <v>13</v>
       </c>
-      <c r="B51" s="177" t="s">
+      <c r="B51" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C51" s="161" t="b">
+      <c r="C51" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D51" s="164" t="b">
+      <c r="D51" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="E51" s="161"/>
-      <c r="F51" s="161"/>
-      <c r="G51" s="161"/>
-      <c r="H51" s="161"/>
-      <c r="I51" s="161"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24"/>
+      <c r="I51" s="24"/>
     </row>
     <row r="52" spans="1:10">
-      <c r="A52" s="161">
+      <c r="A52" s="24">
         <v>14</v>
       </c>
-      <c r="B52" s="177" t="s">
+      <c r="B52" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C52" s="161" t="b">
+      <c r="C52" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="D52" s="164" t="b">
+      <c r="D52" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="E52" s="161"/>
-      <c r="F52" s="161"/>
-      <c r="G52" s="161"/>
-      <c r="H52" s="161"/>
-      <c r="I52" s="161"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
     </row>
     <row r="53" spans="1:10">
-      <c r="A53" s="161">
+      <c r="A53" s="24">
         <v>15</v>
       </c>
-      <c r="B53" s="177" t="s">
+      <c r="B53" s="32" t="s">
         <v>32</v>
       </c>
-      <c r="C53" s="164" t="b">
+      <c r="C53" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="D53" s="161" t="b">
+      <c r="D53" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="E53" s="161"/>
-      <c r="F53" s="161"/>
-      <c r="G53" s="161"/>
-      <c r="H53" s="161"/>
-      <c r="I53" s="161"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24"/>
+      <c r="I53" s="24"/>
     </row>
     <row r="54" spans="1:10">
-      <c r="A54" s="161">
+      <c r="A54" s="24">
         <v>16</v>
       </c>
-      <c r="B54" s="177" t="s">
+      <c r="B54" s="32" t="s">
         <v>187</v>
       </c>
-      <c r="C54" s="164" t="b">
+      <c r="C54" s="27" t="b">
         <v>1</v>
       </c>
-      <c r="D54" s="161" t="b">
+      <c r="D54" s="24" t="b">
         <v>0</v>
       </c>
-      <c r="E54" s="161"/>
-      <c r="F54" s="161"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24"/>
+      <c r="I54" s="24"/>
     </row>
     <row r="55" spans="1:10">
-      <c r="A55" s="161" t="s">
+      <c r="A55" s="24" t="s">
         <v>302</v>
       </c>
-      <c r="B55" s="161"/>
-      <c r="C55" s="163">
+      <c r="B55" s="24"/>
+      <c r="C55" s="26">
         <v>2</v>
       </c>
-      <c r="D55" s="163">
+      <c r="D55" s="26">
         <v>14</v>
       </c>
-      <c r="E55" s="163"/>
-      <c r="F55" s="161"/>
-      <c r="G55" s="161"/>
-      <c r="H55" s="161"/>
-      <c r="I55" s="161"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24"/>
+      <c r="I55" s="24"/>
     </row>
     <row r="56" spans="1:10">
-      <c r="A56" s="161"/>
-      <c r="B56" s="161"/>
-      <c r="C56" s="161"/>
-      <c r="D56" s="161"/>
-      <c r="E56" s="161"/>
-      <c r="F56" s="161"/>
-      <c r="G56" s="161"/>
-      <c r="H56" s="161"/>
-      <c r="I56" s="161"/>
+      <c r="A56" s="24"/>
+      <c r="B56" s="24"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24"/>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
     </row>
     <row r="57" spans="1:10">
-      <c r="A57" s="158" t="s">
+      <c r="A57" s="112" t="s">
         <v>303</v>
       </c>
-      <c r="B57" s="158"/>
-      <c r="C57" s="158"/>
-      <c r="D57" s="158"/>
-      <c r="E57" s="158"/>
-      <c r="F57" s="158"/>
-      <c r="G57" s="158"/>
-      <c r="H57" s="158"/>
-      <c r="I57" s="158"/>
-      <c r="J57" s="158"/>
+      <c r="B57" s="112"/>
+      <c r="C57" s="112"/>
+      <c r="D57" s="112"/>
+      <c r="E57" s="112"/>
+      <c r="F57" s="112"/>
+      <c r="G57" s="112"/>
+      <c r="H57" s="112"/>
+      <c r="I57" s="112"/>
+      <c r="J57" s="112"/>
     </row>
     <row r="58" spans="1:10" ht="46.5" customHeight="1">
-      <c r="A58" s="178" t="s">
-        <v>330</v>
-      </c>
-      <c r="B58" s="178"/>
-      <c r="C58" s="178"/>
-      <c r="D58" s="178"/>
-      <c r="E58" s="178"/>
-      <c r="F58" s="178"/>
-      <c r="G58" s="178"/>
-      <c r="H58" s="178"/>
-      <c r="I58" s="178"/>
-      <c r="J58" s="178"/>
+      <c r="A58" s="113" t="s">
+        <v>428</v>
+      </c>
+      <c r="B58" s="113"/>
+      <c r="C58" s="113"/>
+      <c r="D58" s="113"/>
+      <c r="E58" s="113"/>
+      <c r="F58" s="113"/>
+      <c r="G58" s="113"/>
+      <c r="H58" s="113"/>
+      <c r="I58" s="113"/>
+      <c r="J58" s="113"/>
     </row>
     <row r="59" spans="1:10">
-      <c r="A59" s="161"/>
-      <c r="B59" s="161"/>
-      <c r="C59" s="161"/>
-      <c r="D59" s="161"/>
-      <c r="E59" s="161"/>
-      <c r="F59" s="161"/>
-      <c r="G59" s="161"/>
-      <c r="H59" s="161"/>
-      <c r="I59" s="161"/>
+      <c r="A59" s="24"/>
+      <c r="B59" s="24"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24"/>
+      <c r="I59" s="24"/>
     </row>
     <row r="60" spans="1:10">
-      <c r="A60" s="165"/>
-      <c r="B60" s="161"/>
-      <c r="C60" s="161"/>
-      <c r="D60" s="161"/>
-      <c r="E60" s="161"/>
-      <c r="F60" s="161"/>
-      <c r="G60" s="161"/>
-      <c r="H60" s="161"/>
-      <c r="I60" s="161"/>
+      <c r="A60" s="28"/>
+      <c r="B60" s="24"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
     </row>
     <row r="61" spans="1:10">
-      <c r="A61" s="166"/>
-      <c r="B61" s="167"/>
-      <c r="C61" s="161"/>
-      <c r="D61" s="161"/>
-      <c r="E61" s="161"/>
-      <c r="F61" s="161"/>
-      <c r="G61" s="161"/>
-      <c r="H61" s="161"/>
-      <c r="I61" s="161"/>
+      <c r="A61" s="29"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24"/>
+      <c r="I61" s="24"/>
     </row>
     <row r="62" spans="1:10">
-      <c r="A62" s="166"/>
-      <c r="B62" s="167"/>
-      <c r="C62" s="161"/>
-      <c r="D62" s="161"/>
-      <c r="E62" s="161"/>
-      <c r="F62" s="161"/>
-      <c r="G62" s="161"/>
-      <c r="H62" s="161"/>
-      <c r="I62" s="161"/>
+      <c r="A62" s="29"/>
+      <c r="B62" s="30"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24"/>
+      <c r="I62" s="24"/>
     </row>
     <row r="63" spans="1:10">
-      <c r="A63" s="166"/>
-      <c r="B63" s="167"/>
-      <c r="C63" s="161"/>
-      <c r="D63" s="161"/>
-      <c r="E63" s="161"/>
-      <c r="F63" s="161"/>
-      <c r="G63" s="161"/>
-      <c r="H63" s="161"/>
-      <c r="I63" s="161"/>
+      <c r="A63" s="29"/>
+      <c r="B63" s="30"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24"/>
+      <c r="I63" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A2:I2"/>
+    <mergeCell ref="A8:D8"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A9:D9"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="A11:D11"/>
     <mergeCell ref="A37:J37"/>
     <mergeCell ref="A57:J57"/>
     <mergeCell ref="A58:J58"/>
@@ -11837,16 +11793,6 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A16:J16"/>
     <mergeCell ref="A27:J27"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A9:D9"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1"/>
